--- a/data/rrv_mite_survey_master.xlsx
+++ b/data/rrv_mite_survey_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/afife_ufl_edu/Documents/DISSERTATION/MANUSCRIPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="114_{A1ACD467-6F52-452F-8CA7-A698329C7C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5833CB2-9AFA-42CC-B7B7-EC1B46AEFEF7}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="114_{A1ACD467-6F52-452F-8CA7-A698329C7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4117EF3-581F-443B-B6B1-FCB86C51E82A}"/>
   <bookViews>
-    <workbookView xWindow="-6930" yWindow="4140" windowWidth="16290" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="3000" windowWidth="9975" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mite_survey_master" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3774" uniqueCount="468">
   <si>
     <t>sample_no</t>
   </si>
@@ -1428,18 +1428,6 @@
   </si>
   <si>
     <t>Santa Rosa</t>
-  </si>
-  <si>
-    <t>RRV Pheno 12</t>
-  </si>
-  <si>
-    <t>RRV Pheno 11</t>
-  </si>
-  <si>
-    <t>RRV Pheno 14</t>
-  </si>
-  <si>
-    <t>RRV Pheno 13</t>
   </si>
   <si>
     <t>lon_lat</t>
@@ -2339,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" workbookViewId="0">
-      <selection activeCell="E467" sqref="E467"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="C371" sqref="C371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2375,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2408,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>341</v>
@@ -18923,7 +18911,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>466</v>
+        <v>431</v>
       </c>
       <c r="C369" s="5">
         <v>43991</v>
@@ -18974,7 +18962,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="C370" s="5">
         <v>43991</v>
@@ -19025,7 +19013,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>468</v>
+        <v>433</v>
       </c>
       <c r="C371" s="5">
         <v>43991</v>
@@ -19076,7 +19064,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C372" s="5">
         <v>43991</v>
@@ -24788,7 +24776,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C484" s="5">
         <v>44273</v>
@@ -25168,18 +25156,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25203,14 +25191,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18214261-A5B8-46A6-8EA9-D141AF47C781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B13BC9-D801-4C64-8AB5-CC109F2868F2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -25218,4 +25198,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18214261-A5B8-46A6-8EA9-D141AF47C781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/rrv_mite_survey_master.xlsx
+++ b/data/rrv_mite_survey_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida-my.sharepoint.com/personal/afife_ufl_edu/Documents/DISSERTATION/MANUSCRIPT/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="114_{A1ACD467-6F52-452F-8CA7-A698329C7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B1CBB7E-9484-4D52-9140-62384344E75D}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="114_{A1ACD467-6F52-452F-8CA7-A698329C7C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A754595E-700D-4C77-8F1C-3953156DA069}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4965" yWindow="3090" windowWidth="9975" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mite_survey_master" sheetId="1" r:id="rId1"/>
@@ -2300,32 +2300,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="B481" sqref="B481"/>
+    <sheetView tabSelected="1" topLeftCell="A341" workbookViewId="0">
+      <selection activeCell="H347" sqref="H347"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2425,14 +2425,14 @@
         <v>32</v>
       </c>
       <c r="O2" s="1" t="str">
-        <f>_xlfn.CONCAT(D2, ", ", E2)</f>
+        <f t="shared" ref="O2:O65" si="0">_xlfn.CONCAT(D2, ", ", E2)</f>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2473,14 +2473,14 @@
         <v>32</v>
       </c>
       <c r="O3" s="1" t="str">
-        <f>_xlfn.CONCAT(D3, ", ", E3)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2521,14 +2521,14 @@
         <v>32</v>
       </c>
       <c r="O4" s="1" t="str">
-        <f>_xlfn.CONCAT(D4, ", ", E4)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2569,14 +2569,14 @@
         <v>32</v>
       </c>
       <c r="O5" s="1" t="str">
-        <f>_xlfn.CONCAT(D5, ", ", E5)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2617,14 +2617,14 @@
         <v>32</v>
       </c>
       <c r="O6" s="1" t="str">
-        <f>_xlfn.CONCAT(D6, ", ", E6)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2665,14 +2665,14 @@
         <v>32</v>
       </c>
       <c r="O7" s="1" t="str">
-        <f>_xlfn.CONCAT(D7, ", ", E7)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2713,14 +2713,14 @@
         <v>32</v>
       </c>
       <c r="O8" s="1" t="str">
-        <f>_xlfn.CONCAT(D8, ", ", E8)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2761,14 +2761,14 @@
         <v>32</v>
       </c>
       <c r="O9" s="1" t="str">
-        <f>_xlfn.CONCAT(D9, ", ", E9)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2809,14 +2809,14 @@
         <v>32</v>
       </c>
       <c r="O10" s="1" t="str">
-        <f>_xlfn.CONCAT(D10, ", ", E10)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2857,14 +2857,14 @@
         <v>32</v>
       </c>
       <c r="O11" s="1" t="str">
-        <f>_xlfn.CONCAT(D11, ", ", E11)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2905,14 +2905,14 @@
         <v>32</v>
       </c>
       <c r="O12" s="1" t="str">
-        <f>_xlfn.CONCAT(D12, ", ", E12)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2953,14 +2953,14 @@
         <v>32</v>
       </c>
       <c r="O13" s="1" t="str">
-        <f>_xlfn.CONCAT(D13, ", ", E13)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3001,14 +3001,14 @@
         <v>32</v>
       </c>
       <c r="O14" s="1" t="str">
-        <f>_xlfn.CONCAT(D14, ", ", E14)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3049,14 +3049,14 @@
         <v>32</v>
       </c>
       <c r="O15" s="1" t="str">
-        <f>_xlfn.CONCAT(D15, ", ", E15)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3097,14 +3097,14 @@
         <v>32</v>
       </c>
       <c r="O16" s="1" t="str">
-        <f>_xlfn.CONCAT(D16, ", ", E16)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3145,14 +3145,14 @@
         <v>32</v>
       </c>
       <c r="O17" s="1" t="str">
-        <f>_xlfn.CONCAT(D17, ", ", E17)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3193,14 +3193,14 @@
         <v>32</v>
       </c>
       <c r="O18" s="1" t="str">
-        <f>_xlfn.CONCAT(D18, ", ", E18)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3241,14 +3241,14 @@
         <v>19</v>
       </c>
       <c r="O19" s="1" t="str">
-        <f>_xlfn.CONCAT(D19, ", ", E19)</f>
+        <f t="shared" si="0"/>
         <v>-84.14334421, 30.7087194</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3289,14 +3289,14 @@
         <v>19</v>
       </c>
       <c r="O20" s="1" t="str">
-        <f>_xlfn.CONCAT(D20, ", ", E20)</f>
+        <f t="shared" si="0"/>
         <v>-84.14334421, 30.7087194</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3337,14 +3337,14 @@
         <v>19</v>
       </c>
       <c r="O21" s="1" t="str">
-        <f>_xlfn.CONCAT(D21, ", ", E21)</f>
+        <f t="shared" si="0"/>
         <v>-84.14334421, 30.7087194</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3385,14 +3385,14 @@
         <v>19</v>
       </c>
       <c r="O22" s="1" t="str">
-        <f>_xlfn.CONCAT(D22, ", ", E22)</f>
+        <f t="shared" si="0"/>
         <v>-83.94611134, 30.86205357</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3433,14 +3433,14 @@
         <v>19</v>
       </c>
       <c r="O23" s="1" t="str">
-        <f>_xlfn.CONCAT(D23, ", ", E23)</f>
+        <f t="shared" si="0"/>
         <v>-83.94611134, 30.86205357</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3481,14 +3481,14 @@
         <v>27</v>
       </c>
       <c r="O24" s="1" t="str">
-        <f>_xlfn.CONCAT(D24, ", ", E24)</f>
+        <f t="shared" si="0"/>
         <v>-84.41342194, 30.83692871</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3529,14 +3529,14 @@
         <v>27</v>
       </c>
       <c r="O25" s="1" t="str">
-        <f>_xlfn.CONCAT(D25, ", ", E25)</f>
+        <f t="shared" si="0"/>
         <v>-84.41342194, 30.83692871</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3577,14 +3577,14 @@
         <v>53</v>
       </c>
       <c r="O26" s="1" t="str">
-        <f>_xlfn.CONCAT(D26, ", ", E26)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3625,14 +3625,14 @@
         <v>53</v>
       </c>
       <c r="O27" s="1" t="str">
-        <f>_xlfn.CONCAT(D27, ", ", E27)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3673,14 +3673,14 @@
         <v>53</v>
       </c>
       <c r="O28" s="1" t="str">
-        <f>_xlfn.CONCAT(D28, ", ", E28)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3721,14 +3721,14 @@
         <v>53</v>
       </c>
       <c r="O29" s="1" t="str">
-        <f>_xlfn.CONCAT(D29, ", ", E29)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3769,14 +3769,14 @@
         <v>53</v>
       </c>
       <c r="O30" s="1" t="str">
-        <f>_xlfn.CONCAT(D30, ", ", E30)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3817,14 +3817,14 @@
         <v>53</v>
       </c>
       <c r="O31" s="1" t="str">
-        <f>_xlfn.CONCAT(D31, ", ", E31)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3865,14 +3865,14 @@
         <v>53</v>
       </c>
       <c r="O32" s="1" t="str">
-        <f>_xlfn.CONCAT(D32, ", ", E32)</f>
+        <f t="shared" si="0"/>
         <v>-84.39651401, 30.28456265</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3913,14 +3913,14 @@
         <v>32</v>
       </c>
       <c r="O33" s="1" t="str">
-        <f>_xlfn.CONCAT(D33, ", ", E33)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3961,14 +3961,14 @@
         <v>32</v>
       </c>
       <c r="O34" s="1" t="str">
-        <f>_xlfn.CONCAT(D34, ", ", E34)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4009,14 +4009,14 @@
         <v>32</v>
       </c>
       <c r="O35" s="1" t="str">
-        <f>_xlfn.CONCAT(D35, ", ", E35)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4057,14 +4057,14 @@
         <v>32</v>
       </c>
       <c r="O36" s="1" t="str">
-        <f>_xlfn.CONCAT(D36, ", ", E36)</f>
+        <f t="shared" si="0"/>
         <v>-84.276859, 30.496187</v>
       </c>
       <c r="Q36" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4108,14 +4108,14 @@
         <v>32</v>
       </c>
       <c r="O37" s="1" t="str">
-        <f>_xlfn.CONCAT(D37, ", ", E37)</f>
+        <f t="shared" si="0"/>
         <v>-83.376944, 33.953889</v>
       </c>
       <c r="Q37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4159,14 +4159,14 @@
         <v>67</v>
       </c>
       <c r="O38" s="1" t="str">
-        <f>_xlfn.CONCAT(D38, ", ", E38)</f>
+        <f t="shared" si="0"/>
         <v>-83.376945, 33.953889</v>
       </c>
       <c r="Q38" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4207,14 +4207,14 @@
         <v>67</v>
       </c>
       <c r="O39" s="1" t="str">
-        <f>_xlfn.CONCAT(D39, ", ", E39)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4255,14 +4255,14 @@
         <v>67</v>
       </c>
       <c r="O40" s="1" t="str">
-        <f>_xlfn.CONCAT(D40, ", ", E40)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q40" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4303,14 +4303,14 @@
         <v>67</v>
       </c>
       <c r="O41" s="1" t="str">
-        <f>_xlfn.CONCAT(D41, ", ", E41)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q41" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4354,14 +4354,14 @@
         <v>67</v>
       </c>
       <c r="O42" s="1" t="str">
-        <f>_xlfn.CONCAT(D42, ", ", E42)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q42" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4402,14 +4402,14 @@
         <v>67</v>
       </c>
       <c r="O43" s="1" t="str">
-        <f>_xlfn.CONCAT(D43, ", ", E43)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q43" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4453,14 +4453,14 @@
         <v>67</v>
       </c>
       <c r="O44" s="1" t="str">
-        <f>_xlfn.CONCAT(D44, ", ", E44)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4501,14 +4501,14 @@
         <v>67</v>
       </c>
       <c r="O45" s="1" t="str">
-        <f>_xlfn.CONCAT(D45, ", ", E45)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q45" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4549,14 +4549,14 @@
         <v>67</v>
       </c>
       <c r="O46" s="1" t="str">
-        <f>_xlfn.CONCAT(D46, ", ", E46)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4597,14 +4597,14 @@
         <v>67</v>
       </c>
       <c r="O47" s="1" t="str">
-        <f>_xlfn.CONCAT(D47, ", ", E47)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q47" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4645,14 +4645,14 @@
         <v>67</v>
       </c>
       <c r="O48" s="1" t="str">
-        <f>_xlfn.CONCAT(D48, ", ", E48)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q48" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4693,14 +4693,14 @@
         <v>67</v>
       </c>
       <c r="O49" s="1" t="str">
-        <f>_xlfn.CONCAT(D49, ", ", E49)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4741,14 +4741,14 @@
         <v>67</v>
       </c>
       <c r="O50" s="1" t="str">
-        <f>_xlfn.CONCAT(D50, ", ", E50)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q50" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4789,14 +4789,14 @@
         <v>67</v>
       </c>
       <c r="O51" s="1" t="str">
-        <f>_xlfn.CONCAT(D51, ", ", E51)</f>
+        <f t="shared" si="0"/>
         <v>-83.367407, 33.954548</v>
       </c>
       <c r="Q51" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4840,14 +4840,14 @@
         <v>91</v>
       </c>
       <c r="O52" s="1" t="str">
-        <f>_xlfn.CONCAT(D52, ", ", E52)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q52" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4891,14 +4891,14 @@
         <v>91</v>
       </c>
       <c r="O53" s="1" t="str">
-        <f>_xlfn.CONCAT(D53, ", ", E53)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4939,14 +4939,14 @@
         <v>91</v>
       </c>
       <c r="O54" s="1" t="str">
-        <f>_xlfn.CONCAT(D54, ", ", E54)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q54" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4987,14 +4987,14 @@
         <v>91</v>
       </c>
       <c r="O55" s="1" t="str">
-        <f>_xlfn.CONCAT(D55, ", ", E55)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q55" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5035,14 +5035,14 @@
         <v>91</v>
       </c>
       <c r="O56" s="1" t="str">
-        <f>_xlfn.CONCAT(D56, ", ", E56)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5086,14 +5086,14 @@
         <v>91</v>
       </c>
       <c r="O57" s="1" t="str">
-        <f>_xlfn.CONCAT(D57, ", ", E57)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5134,14 +5134,14 @@
         <v>91</v>
       </c>
       <c r="O58" s="1" t="str">
-        <f>_xlfn.CONCAT(D58, ", ", E58)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q58" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5182,14 +5182,14 @@
         <v>91</v>
       </c>
       <c r="O59" s="1" t="str">
-        <f>_xlfn.CONCAT(D59, ", ", E59)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5230,14 +5230,14 @@
         <v>91</v>
       </c>
       <c r="O60" s="1" t="str">
-        <f>_xlfn.CONCAT(D60, ", ", E60)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5278,14 +5278,14 @@
         <v>91</v>
       </c>
       <c r="O61" s="1" t="str">
-        <f>_xlfn.CONCAT(D61, ", ", E61)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5326,14 +5326,14 @@
         <v>91</v>
       </c>
       <c r="O62" s="1" t="str">
-        <f>_xlfn.CONCAT(D62, ", ", E62)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q62" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5374,14 +5374,14 @@
         <v>91</v>
       </c>
       <c r="O63" s="1" t="str">
-        <f>_xlfn.CONCAT(D63, ", ", E63)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q63" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5422,14 +5422,14 @@
         <v>91</v>
       </c>
       <c r="O64" s="1" t="str">
-        <f>_xlfn.CONCAT(D64, ", ", E64)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5470,14 +5470,14 @@
         <v>91</v>
       </c>
       <c r="O65" s="1" t="str">
-        <f>_xlfn.CONCAT(D65, ", ", E65)</f>
+        <f t="shared" si="0"/>
         <v>-84.285321, 33.262423</v>
       </c>
       <c r="Q65" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5518,14 +5518,14 @@
         <v>84</v>
       </c>
       <c r="O66" s="1" t="str">
-        <f>_xlfn.CONCAT(D66, ", ", E66)</f>
+        <f t="shared" ref="O66:O129" si="1">_xlfn.CONCAT(D66, ", ", E66)</f>
         <v>-81.506149, 28.640823</v>
       </c>
       <c r="Q66" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5566,14 +5566,14 @@
         <v>84</v>
       </c>
       <c r="O67" s="1" t="str">
-        <f>_xlfn.CONCAT(D67, ", ", E67)</f>
+        <f t="shared" si="1"/>
         <v>-81.506149, 28.640823</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -5614,14 +5614,14 @@
         <v>84</v>
       </c>
       <c r="O68" s="1" t="str">
-        <f>_xlfn.CONCAT(D68, ", ", E68)</f>
+        <f t="shared" si="1"/>
         <v>-81.506149, 28.640823</v>
       </c>
       <c r="Q68" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -5662,14 +5662,14 @@
         <v>84</v>
       </c>
       <c r="O69" s="1" t="str">
-        <f>_xlfn.CONCAT(D69, ", ", E69)</f>
+        <f t="shared" si="1"/>
         <v>-81.506149, 28.640823</v>
       </c>
       <c r="Q69" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -5710,14 +5710,14 @@
         <v>84</v>
       </c>
       <c r="O70" s="1" t="str">
-        <f>_xlfn.CONCAT(D70, ", ", E70)</f>
+        <f t="shared" si="1"/>
         <v>-81.506149, 28.640823</v>
       </c>
       <c r="Q70" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5749,14 +5749,14 @@
         <v>32</v>
       </c>
       <c r="O71" s="1" t="str">
-        <f>_xlfn.CONCAT(D71, ", ", E71)</f>
+        <f t="shared" si="1"/>
         <v>-84.302334, 30.443888</v>
       </c>
       <c r="Q71" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5788,14 +5788,14 @@
         <v>32</v>
       </c>
       <c r="O72" s="1" t="str">
-        <f>_xlfn.CONCAT(D72, ", ", E72)</f>
+        <f t="shared" si="1"/>
         <v>-84.296439, 30.444611</v>
       </c>
       <c r="Q72" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5827,14 +5827,14 @@
         <v>32</v>
       </c>
       <c r="O73" s="1" t="str">
-        <f>_xlfn.CONCAT(D73, ", ", E73)</f>
+        <f t="shared" si="1"/>
         <v>-84.294903, 30.44435</v>
       </c>
       <c r="Q73" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -5866,14 +5866,14 @@
         <v>32</v>
       </c>
       <c r="O74" s="1" t="str">
-        <f>_xlfn.CONCAT(D74, ", ", E74)</f>
+        <f t="shared" si="1"/>
         <v>-84.294417, 30.441965</v>
       </c>
       <c r="Q74" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -5905,14 +5905,14 @@
         <v>32</v>
       </c>
       <c r="O75" s="1" t="str">
-        <f>_xlfn.CONCAT(D75, ", ", E75)</f>
+        <f t="shared" si="1"/>
         <v>-84.29487, 30.441563</v>
       </c>
       <c r="Q75" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -5944,14 +5944,14 @@
         <v>32</v>
       </c>
       <c r="O76" s="1" t="str">
-        <f>_xlfn.CONCAT(D76, ", ", E76)</f>
+        <f t="shared" si="1"/>
         <v>-84.295998, 30.439927</v>
       </c>
       <c r="Q76" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -5983,14 +5983,14 @@
         <v>32</v>
       </c>
       <c r="O77" s="1" t="str">
-        <f>_xlfn.CONCAT(D77, ", ", E77)</f>
+        <f t="shared" si="1"/>
         <v>-84.299448, 30.439583</v>
       </c>
       <c r="Q77" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6022,14 +6022,14 @@
         <v>19</v>
       </c>
       <c r="O78" s="1" t="str">
-        <f>_xlfn.CONCAT(D78, ", ", E78)</f>
+        <f t="shared" si="1"/>
         <v>-84.306948, 30.444908</v>
       </c>
       <c r="Q78" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6061,14 +6061,14 @@
         <v>19</v>
       </c>
       <c r="O79" s="1" t="str">
-        <f>_xlfn.CONCAT(D79, ", ", E79)</f>
+        <f t="shared" si="1"/>
         <v>-83.957895, 30.837888</v>
       </c>
       <c r="Q79" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6100,14 +6100,14 @@
         <v>19</v>
       </c>
       <c r="O80" s="1" t="str">
-        <f>_xlfn.CONCAT(D80, ", ", E80)</f>
+        <f t="shared" si="1"/>
         <v>-83.962756, 30.835668</v>
       </c>
       <c r="Q80" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6139,14 +6139,14 @@
         <v>19</v>
       </c>
       <c r="O81" s="1" t="str">
-        <f>_xlfn.CONCAT(D81, ", ", E81)</f>
+        <f t="shared" si="1"/>
         <v>-83.964335, 30.835692</v>
       </c>
       <c r="Q81" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6178,14 +6178,14 @@
         <v>19</v>
       </c>
       <c r="O82" s="1" t="str">
-        <f>_xlfn.CONCAT(D82, ", ", E82)</f>
+        <f t="shared" si="1"/>
         <v>-83.965824, 30.835324</v>
       </c>
       <c r="Q82" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6217,14 +6217,14 @@
         <v>19</v>
       </c>
       <c r="O83" s="1" t="str">
-        <f>_xlfn.CONCAT(D83, ", ", E83)</f>
+        <f t="shared" si="1"/>
         <v>-83.972002, 30.843127</v>
       </c>
       <c r="Q83" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6256,14 +6256,14 @@
         <v>19</v>
       </c>
       <c r="O84" s="1" t="str">
-        <f>_xlfn.CONCAT(D84, ", ", E84)</f>
+        <f t="shared" si="1"/>
         <v>-83.971461, 30.843464</v>
       </c>
       <c r="Q84" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6295,14 +6295,14 @@
         <v>19</v>
       </c>
       <c r="O85" s="1" t="str">
-        <f>_xlfn.CONCAT(D85, ", ", E85)</f>
+        <f t="shared" si="1"/>
         <v>-83.966502, 30.844639</v>
       </c>
       <c r="Q85" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6334,14 +6334,14 @@
         <v>19</v>
       </c>
       <c r="O86" s="1" t="str">
-        <f>_xlfn.CONCAT(D86, ", ", E86)</f>
+        <f t="shared" si="1"/>
         <v>-83.965411, 30.844346</v>
       </c>
       <c r="Q86" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6373,14 +6373,14 @@
         <v>19</v>
       </c>
       <c r="O87" s="1" t="str">
-        <f>_xlfn.CONCAT(D87, ", ", E87)</f>
+        <f t="shared" si="1"/>
         <v>-83.966904, 30.841769</v>
       </c>
       <c r="Q87" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6412,14 +6412,14 @@
         <v>19</v>
       </c>
       <c r="O88" s="1" t="str">
-        <f>_xlfn.CONCAT(D88, ", ", E88)</f>
+        <f t="shared" si="1"/>
         <v>-83.974466, 30.842633</v>
       </c>
       <c r="Q88" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6451,14 +6451,14 @@
         <v>19</v>
       </c>
       <c r="O89" s="1" t="str">
-        <f>_xlfn.CONCAT(D89, ", ", E89)</f>
+        <f t="shared" si="1"/>
         <v>-83.982567, 30.832758</v>
       </c>
       <c r="Q89" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6490,14 +6490,14 @@
         <v>19</v>
       </c>
       <c r="O90" s="1" t="str">
-        <f>_xlfn.CONCAT(D90, ", ", E90)</f>
+        <f t="shared" si="1"/>
         <v>-83.982132, 30.833072</v>
       </c>
       <c r="Q90" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6529,14 +6529,14 @@
         <v>19</v>
       </c>
       <c r="O91" s="1" t="str">
-        <f>_xlfn.CONCAT(D91, ", ", E91)</f>
+        <f t="shared" si="1"/>
         <v>-83.971552, 30.8435</v>
       </c>
       <c r="Q91" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6568,14 +6568,14 @@
         <v>19</v>
       </c>
       <c r="O92" s="1" t="str">
-        <f>_xlfn.CONCAT(D92, ", ", E92)</f>
+        <f t="shared" si="1"/>
         <v>-83.949951, 30.858414</v>
       </c>
       <c r="Q92" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6607,14 +6607,14 @@
         <v>32</v>
       </c>
       <c r="O93" s="1" t="str">
-        <f>_xlfn.CONCAT(D93, ", ", E93)</f>
+        <f t="shared" si="1"/>
         <v>-84.038997, 30.594064</v>
       </c>
       <c r="Q93" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6646,14 +6646,14 @@
         <v>134</v>
       </c>
       <c r="O94" s="1" t="str">
-        <f>_xlfn.CONCAT(D94, ", ", E94)</f>
+        <f t="shared" si="1"/>
         <v>-84.415464, 30.624643</v>
       </c>
       <c r="Q94" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6685,14 +6685,14 @@
         <v>134</v>
       </c>
       <c r="O95" s="1" t="str">
-        <f>_xlfn.CONCAT(D95, ", ", E95)</f>
+        <f t="shared" si="1"/>
         <v>-84.41603, 30.625952</v>
       </c>
       <c r="Q95" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6724,14 +6724,14 @@
         <v>134</v>
       </c>
       <c r="O96" s="1" t="str">
-        <f>_xlfn.CONCAT(D96, ", ", E96)</f>
+        <f t="shared" si="1"/>
         <v>-84.41626, 30.624799</v>
       </c>
       <c r="Q96" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6763,14 +6763,14 @@
         <v>134</v>
       </c>
       <c r="O97" s="1" t="str">
-        <f>_xlfn.CONCAT(D97, ", ", E97)</f>
+        <f t="shared" si="1"/>
         <v>-84.416445, 30.624711</v>
       </c>
       <c r="Q97" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6802,14 +6802,14 @@
         <v>134</v>
       </c>
       <c r="O98" s="1" t="str">
-        <f>_xlfn.CONCAT(D98, ", ", E98)</f>
+        <f t="shared" si="1"/>
         <v>-84.415324, 30.621627</v>
       </c>
       <c r="Q98" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6841,14 +6841,14 @@
         <v>134</v>
       </c>
       <c r="O99" s="1" t="str">
-        <f>_xlfn.CONCAT(D99, ", ", E99)</f>
+        <f t="shared" si="1"/>
         <v>-84.411913, 30.626915</v>
       </c>
       <c r="Q99" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6880,14 +6880,14 @@
         <v>134</v>
       </c>
       <c r="O100" s="1" t="str">
-        <f>_xlfn.CONCAT(D100, ", ", E100)</f>
+        <f t="shared" si="1"/>
         <v>-84.411914, 30.626946</v>
       </c>
       <c r="Q100" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6919,14 +6919,14 @@
         <v>134</v>
       </c>
       <c r="O101" s="1" t="str">
-        <f>_xlfn.CONCAT(D101, ", ", E101)</f>
+        <f t="shared" si="1"/>
         <v>-84.412072, 30.627551</v>
       </c>
       <c r="Q101" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6958,14 +6958,14 @@
         <v>134</v>
       </c>
       <c r="O102" s="1" t="str">
-        <f>_xlfn.CONCAT(D102, ", ", E102)</f>
+        <f t="shared" si="1"/>
         <v>-84.416086, 30.632472</v>
       </c>
       <c r="Q102" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6997,14 +6997,14 @@
         <v>27</v>
       </c>
       <c r="O103" s="1" t="str">
-        <f>_xlfn.CONCAT(D103, ", ", E103)</f>
+        <f t="shared" si="1"/>
         <v>-84.487173, 30.760661</v>
       </c>
       <c r="Q103" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7036,14 +7036,14 @@
         <v>27</v>
       </c>
       <c r="O104" s="1" t="str">
-        <f>_xlfn.CONCAT(D104, ", ", E104)</f>
+        <f t="shared" si="1"/>
         <v>-84.487281, 30.761199</v>
       </c>
       <c r="Q104" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7075,14 +7075,14 @@
         <v>27</v>
       </c>
       <c r="O105" s="1" t="str">
-        <f>_xlfn.CONCAT(D105, ", ", E105)</f>
+        <f t="shared" si="1"/>
         <v>-84.567586, 30.897538</v>
       </c>
       <c r="Q105" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7114,14 +7114,14 @@
         <v>27</v>
       </c>
       <c r="O106" s="1" t="str">
-        <f>_xlfn.CONCAT(D106, ", ", E106)</f>
+        <f t="shared" si="1"/>
         <v>-84.575979, 30.90642</v>
       </c>
       <c r="Q106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7153,14 +7153,14 @@
         <v>27</v>
       </c>
       <c r="O107" s="1" t="str">
-        <f>_xlfn.CONCAT(D107, ", ", E107)</f>
+        <f t="shared" si="1"/>
         <v>-84.576463, 30.906571</v>
       </c>
       <c r="Q107" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7192,14 +7192,14 @@
         <v>27</v>
       </c>
       <c r="O108" s="1" t="str">
-        <f>_xlfn.CONCAT(D108, ", ", E108)</f>
+        <f t="shared" si="1"/>
         <v>-84.577718, 30.906661</v>
       </c>
       <c r="Q108" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7231,14 +7231,14 @@
         <v>27</v>
       </c>
       <c r="O109" s="1" t="str">
-        <f>_xlfn.CONCAT(D109, ", ", E109)</f>
+        <f t="shared" si="1"/>
         <v>-84.580087, 30.904486</v>
       </c>
       <c r="Q109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7270,14 +7270,14 @@
         <v>27</v>
       </c>
       <c r="O110" s="1" t="str">
-        <f>_xlfn.CONCAT(D110, ", ", E110)</f>
+        <f t="shared" si="1"/>
         <v>-84.589315, 30.902827</v>
       </c>
       <c r="Q110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7309,14 +7309,14 @@
         <v>27</v>
       </c>
       <c r="O111" s="1" t="str">
-        <f>_xlfn.CONCAT(D111, ", ", E111)</f>
+        <f t="shared" si="1"/>
         <v>-84.588571, 30.898722</v>
       </c>
       <c r="Q111" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7348,14 +7348,14 @@
         <v>156</v>
       </c>
       <c r="O112" s="1" t="str">
-        <f>_xlfn.CONCAT(D112, ", ", E112)</f>
+        <f t="shared" si="1"/>
         <v>-84.73139, 31.170065</v>
       </c>
       <c r="Q112" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7387,14 +7387,14 @@
         <v>156</v>
       </c>
       <c r="O113" s="1" t="str">
-        <f>_xlfn.CONCAT(D113, ", ", E113)</f>
+        <f t="shared" si="1"/>
         <v>-84.734316, 31.169877</v>
       </c>
       <c r="Q113" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7426,14 +7426,14 @@
         <v>156</v>
       </c>
       <c r="O114" s="1" t="str">
-        <f>_xlfn.CONCAT(D114, ", ", E114)</f>
+        <f t="shared" si="1"/>
         <v>-84.741156, 31.171282</v>
       </c>
       <c r="Q114" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7465,14 +7465,14 @@
         <v>161</v>
       </c>
       <c r="O115" s="1" t="str">
-        <f>_xlfn.CONCAT(D115, ", ", E115)</f>
+        <f t="shared" si="1"/>
         <v>-84.552884, 32.030553</v>
       </c>
       <c r="Q115" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7504,14 +7504,14 @@
         <v>164</v>
       </c>
       <c r="O116" s="1" t="str">
-        <f>_xlfn.CONCAT(D116, ", ", E116)</f>
+        <f t="shared" si="1"/>
         <v>-84.242249, 32.543492</v>
       </c>
       <c r="Q116" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7543,14 +7543,14 @@
         <v>167</v>
       </c>
       <c r="O117" s="1" t="str">
-        <f>_xlfn.CONCAT(D117, ", ", E117)</f>
+        <f t="shared" si="1"/>
         <v>-83.753102, 31.960078</v>
       </c>
       <c r="Q117" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7582,14 +7582,14 @@
         <v>170</v>
       </c>
       <c r="O118" s="1" t="str">
-        <f>_xlfn.CONCAT(D118, ", ", E118)</f>
+        <f t="shared" si="1"/>
         <v>-84.208031, 30.8747</v>
       </c>
       <c r="Q118" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7621,14 +7621,14 @@
         <v>170</v>
       </c>
       <c r="O119" s="1" t="str">
-        <f>_xlfn.CONCAT(D119, ", ", E119)</f>
+        <f t="shared" si="1"/>
         <v>-84.206363, 30.879652</v>
       </c>
       <c r="Q119" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7660,14 +7660,14 @@
         <v>170</v>
       </c>
       <c r="O120" s="1" t="str">
-        <f>_xlfn.CONCAT(D120, ", ", E120)</f>
+        <f t="shared" si="1"/>
         <v>-84.208371, 30.879238</v>
       </c>
       <c r="Q120" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7699,14 +7699,14 @@
         <v>175</v>
       </c>
       <c r="O121" s="1" t="str">
-        <f>_xlfn.CONCAT(D121, ", ", E121)</f>
+        <f t="shared" si="1"/>
         <v>-84.08969, 31.072618</v>
       </c>
       <c r="Q121" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7735,14 +7735,14 @@
         <v>91</v>
       </c>
       <c r="O122" s="1" t="str">
-        <f>_xlfn.CONCAT(D122, ", ", E122)</f>
+        <f t="shared" si="1"/>
         <v>-84.292889, 33.262949</v>
       </c>
       <c r="Q122" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7771,14 +7771,14 @@
         <v>91</v>
       </c>
       <c r="O123" s="1" t="str">
-        <f>_xlfn.CONCAT(D123, ", ", E123)</f>
+        <f t="shared" si="1"/>
         <v>-84.29202, 33.263002</v>
       </c>
       <c r="Q123" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7807,14 +7807,14 @@
         <v>91</v>
       </c>
       <c r="O124" s="1" t="str">
-        <f>_xlfn.CONCAT(D124, ", ", E124)</f>
+        <f t="shared" si="1"/>
         <v>-84.292868, 33.263045</v>
       </c>
       <c r="Q124" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7846,14 +7846,14 @@
         <v>91</v>
       </c>
       <c r="O125" s="1" t="str">
-        <f>_xlfn.CONCAT(D125, ", ", E125)</f>
+        <f t="shared" si="1"/>
         <v>-84.292892, 33.263128</v>
       </c>
       <c r="Q125" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7882,14 +7882,14 @@
         <v>91</v>
       </c>
       <c r="O126" s="1" t="str">
-        <f>_xlfn.CONCAT(D126, ", ", E126)</f>
+        <f t="shared" si="1"/>
         <v>-84.292903, 33.263106</v>
       </c>
       <c r="Q126" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7918,14 +7918,14 @@
         <v>91</v>
       </c>
       <c r="O127" s="1" t="str">
-        <f>_xlfn.CONCAT(D127, ", ", E127)</f>
+        <f t="shared" si="1"/>
         <v>-84.292805, 33.26</v>
       </c>
       <c r="Q127" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7954,14 +7954,14 @@
         <v>91</v>
       </c>
       <c r="O128" s="1" t="str">
-        <f>_xlfn.CONCAT(D128, ", ", E128)</f>
+        <f t="shared" si="1"/>
         <v>-84.292804, 33.263129</v>
       </c>
       <c r="Q128" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7990,14 +7990,14 @@
         <v>91</v>
       </c>
       <c r="O129" s="1" t="str">
-        <f>_xlfn.CONCAT(D129, ", ", E129)</f>
+        <f t="shared" si="1"/>
         <v>-84.292783, 33.263137</v>
       </c>
       <c r="Q129" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -8026,14 +8026,14 @@
         <v>91</v>
       </c>
       <c r="O130" s="1" t="str">
-        <f>_xlfn.CONCAT(D130, ", ", E130)</f>
+        <f t="shared" ref="O130:O193" si="2">_xlfn.CONCAT(D130, ", ", E130)</f>
         <v>-84.292775, 33.263116</v>
       </c>
       <c r="Q130" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -8062,14 +8062,14 @@
         <v>91</v>
       </c>
       <c r="O131" s="1" t="str">
-        <f>_xlfn.CONCAT(D131, ", ", E131)</f>
+        <f t="shared" si="2"/>
         <v>-84.292735, 33.263053</v>
       </c>
       <c r="Q131" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -8098,14 +8098,14 @@
         <v>91</v>
       </c>
       <c r="O132" s="1" t="str">
-        <f>_xlfn.CONCAT(D132, ", ", E132)</f>
+        <f t="shared" si="2"/>
         <v>-84.292715, 33.263006</v>
       </c>
       <c r="Q132" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -8134,14 +8134,14 @@
         <v>91</v>
       </c>
       <c r="O133" s="1" t="str">
-        <f>_xlfn.CONCAT(D133, ", ", E133)</f>
+        <f t="shared" si="2"/>
         <v>-84.292699, 33.262927</v>
       </c>
       <c r="Q133" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -8170,14 +8170,14 @@
         <v>91</v>
       </c>
       <c r="O134" s="1" t="str">
-        <f>_xlfn.CONCAT(D134, ", ", E134)</f>
+        <f t="shared" si="2"/>
         <v>-84.292485, 33.26</v>
       </c>
       <c r="Q134" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -8206,14 +8206,14 @@
         <v>91</v>
       </c>
       <c r="O135" s="1" t="str">
-        <f>_xlfn.CONCAT(D135, ", ", E135)</f>
+        <f t="shared" si="2"/>
         <v>-84.292662, 33.263371</v>
       </c>
       <c r="Q135" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -8242,14 +8242,14 @@
         <v>91</v>
       </c>
       <c r="O136" s="1" t="str">
-        <f>_xlfn.CONCAT(D136, ", ", E136)</f>
+        <f t="shared" si="2"/>
         <v>-84.292666, 33.263328</v>
       </c>
       <c r="Q136" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -8278,14 +8278,14 @@
         <v>91</v>
       </c>
       <c r="O137" s="1" t="str">
-        <f>_xlfn.CONCAT(D137, ", ", E137)</f>
+        <f t="shared" si="2"/>
         <v>-84.292741, 33.263141</v>
       </c>
       <c r="Q137" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -8314,14 +8314,14 @@
         <v>91</v>
       </c>
       <c r="O138" s="1" t="str">
-        <f>_xlfn.CONCAT(D138, ", ", E138)</f>
+        <f t="shared" si="2"/>
         <v>-84.292874, 33.263062</v>
       </c>
       <c r="Q138" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -8359,14 +8359,14 @@
         <v>134</v>
       </c>
       <c r="O139" s="1" t="str">
-        <f>_xlfn.CONCAT(D139, ", ", E139)</f>
+        <f t="shared" si="2"/>
         <v>-84.59516, 30.54276</v>
       </c>
       <c r="Q139" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -8404,14 +8404,14 @@
         <v>134</v>
       </c>
       <c r="O140" s="1" t="str">
-        <f>_xlfn.CONCAT(D140, ", ", E140)</f>
+        <f t="shared" si="2"/>
         <v>-84.57825, 30.58847</v>
       </c>
       <c r="Q140" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -8449,14 +8449,14 @@
         <v>134</v>
       </c>
       <c r="O141" s="1" t="str">
-        <f>_xlfn.CONCAT(D141, ", ", E141)</f>
+        <f t="shared" si="2"/>
         <v>-84.60728, 30.58454</v>
       </c>
       <c r="Q141" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -8494,14 +8494,14 @@
         <v>134</v>
       </c>
       <c r="O142" s="1" t="str">
-        <f>_xlfn.CONCAT(D142, ", ", E142)</f>
+        <f t="shared" si="2"/>
         <v>-84.60083, 30.58529</v>
       </c>
       <c r="Q142" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -8539,14 +8539,14 @@
         <v>134</v>
       </c>
       <c r="O143" s="1" t="str">
-        <f>_xlfn.CONCAT(D143, ", ", E143)</f>
+        <f t="shared" si="2"/>
         <v>-84.59547, 30.54349</v>
       </c>
       <c r="Q143" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -8584,14 +8584,14 @@
         <v>134</v>
       </c>
       <c r="O144" s="1" t="str">
-        <f>_xlfn.CONCAT(D144, ", ", E144)</f>
+        <f t="shared" si="2"/>
         <v>-84.59217, 30.55314</v>
       </c>
       <c r="Q144" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -8629,14 +8629,14 @@
         <v>134</v>
       </c>
       <c r="O145" s="1" t="str">
-        <f>_xlfn.CONCAT(D145, ", ", E145)</f>
+        <f t="shared" si="2"/>
         <v>-84.6431, 30.59133</v>
       </c>
       <c r="Q145" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="146" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>32</v>
       </c>
       <c r="O146" s="1" t="str">
-        <f>_xlfn.CONCAT(D146, ", ", E146)</f>
+        <f t="shared" si="2"/>
         <v>-84.30567, 30.448</v>
       </c>
       <c r="P146" s="2"/>
@@ -8686,7 +8686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="147" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>32</v>
       </c>
       <c r="O147" s="1" t="str">
-        <f>_xlfn.CONCAT(D147, ", ", E147)</f>
+        <f t="shared" si="2"/>
         <v>-84.30402, 30.44624</v>
       </c>
       <c r="P147" s="2"/>
@@ -8739,7 +8739,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="148" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>32</v>
       </c>
       <c r="O148" s="1" t="str">
-        <f>_xlfn.CONCAT(D148, ", ", E148)</f>
+        <f t="shared" si="2"/>
         <v>-84.30448, 30.44613</v>
       </c>
       <c r="P148" s="2"/>
@@ -8789,7 +8789,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>32</v>
       </c>
       <c r="O149" s="1" t="str">
-        <f>_xlfn.CONCAT(D149, ", ", E149)</f>
+        <f t="shared" si="2"/>
         <v>-84.30291, 30.4457</v>
       </c>
       <c r="P149" s="2"/>
@@ -8839,7 +8839,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>32</v>
       </c>
       <c r="O150" s="1" t="str">
-        <f>_xlfn.CONCAT(D150, ", ", E150)</f>
+        <f t="shared" si="2"/>
         <v>-84.2999, 30.44433</v>
       </c>
       <c r="P150" s="2"/>
@@ -8889,7 +8889,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>32</v>
       </c>
       <c r="O151" s="1" t="str">
-        <f>_xlfn.CONCAT(D151, ", ", E151)</f>
+        <f t="shared" si="2"/>
         <v>-84.25085, 30.50561</v>
       </c>
       <c r="P151" s="1"/>
@@ -8937,7 +8937,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="152" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>32</v>
       </c>
       <c r="O152" s="1" t="str">
-        <f>_xlfn.CONCAT(D152, ", ", E152)</f>
+        <f t="shared" si="2"/>
         <v>-84.27879, 30.45372</v>
       </c>
       <c r="P152" s="2"/>
@@ -8987,7 +8987,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -9025,14 +9025,14 @@
         <v>32</v>
       </c>
       <c r="O153" s="1" t="str">
-        <f>_xlfn.CONCAT(D153, ", ", E153)</f>
+        <f t="shared" si="2"/>
         <v>-84.28515, 30.46685</v>
       </c>
       <c r="Q153" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -9070,14 +9070,14 @@
         <v>134</v>
       </c>
       <c r="O154" s="1" t="str">
-        <f>_xlfn.CONCAT(D154, ", ", E154)</f>
+        <f t="shared" si="2"/>
         <v>-84.30833, 30.44003</v>
       </c>
       <c r="Q154" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -9115,14 +9115,14 @@
         <v>32</v>
       </c>
       <c r="O155" s="1" t="str">
-        <f>_xlfn.CONCAT(D155, ", ", E155)</f>
+        <f t="shared" si="2"/>
         <v>-84.29028, 30.43287</v>
       </c>
       <c r="Q155" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -9160,14 +9160,14 @@
         <v>32</v>
       </c>
       <c r="O156" s="1" t="str">
-        <f>_xlfn.CONCAT(D156, ", ", E156)</f>
+        <f t="shared" si="2"/>
         <v>-84.28971, 30.42997</v>
       </c>
       <c r="Q156" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -9205,14 +9205,14 @@
         <v>32</v>
       </c>
       <c r="O157" s="1" t="str">
-        <f>_xlfn.CONCAT(D157, ", ", E157)</f>
+        <f t="shared" si="2"/>
         <v>-84.28861, 30.42167</v>
       </c>
       <c r="Q157" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -9250,14 +9250,14 @@
         <v>32</v>
       </c>
       <c r="O158" s="1" t="str">
-        <f>_xlfn.CONCAT(D158, ", ", E158)</f>
+        <f t="shared" si="2"/>
         <v>-84.27613, 30.43787</v>
       </c>
       <c r="Q158" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -9295,14 +9295,14 @@
         <v>32</v>
       </c>
       <c r="O159" s="1" t="str">
-        <f>_xlfn.CONCAT(D159, ", ", E159)</f>
+        <f t="shared" si="2"/>
         <v>-84.21275, 30.44676</v>
       </c>
       <c r="Q159" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -9340,14 +9340,14 @@
         <v>32</v>
       </c>
       <c r="O160" s="1" t="str">
-        <f>_xlfn.CONCAT(D160, ", ", E160)</f>
+        <f t="shared" si="2"/>
         <v>-84.21749, 30.44734</v>
       </c>
       <c r="Q160" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -9385,14 +9385,14 @@
         <v>32</v>
       </c>
       <c r="O161" s="1" t="str">
-        <f>_xlfn.CONCAT(D161, ", ", E161)</f>
+        <f t="shared" si="2"/>
         <v>-84.21951, 30.44946</v>
       </c>
       <c r="Q161" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -9430,14 +9430,14 @@
         <v>32</v>
       </c>
       <c r="O162" s="1" t="str">
-        <f>_xlfn.CONCAT(D162, ", ", E162)</f>
+        <f t="shared" si="2"/>
         <v>-84.22835, 30.46036</v>
       </c>
       <c r="Q162" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -9475,14 +9475,14 @@
         <v>134</v>
       </c>
       <c r="O163" s="1" t="str">
-        <f>_xlfn.CONCAT(D163, ", ", E163)</f>
+        <f t="shared" si="2"/>
         <v>-84.33569, 30.45217</v>
       </c>
       <c r="Q163" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -9517,14 +9517,14 @@
         <v>134</v>
       </c>
       <c r="O164" s="1" t="str">
-        <f>_xlfn.CONCAT(D164, ", ", E164)</f>
+        <f t="shared" si="2"/>
         <v>-84.41504, 30.62429</v>
       </c>
       <c r="Q164" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -9559,14 +9559,14 @@
         <v>134</v>
       </c>
       <c r="O165" s="1" t="str">
-        <f>_xlfn.CONCAT(D165, ", ", E165)</f>
+        <f t="shared" si="2"/>
         <v>-84.41348, 30.62458</v>
       </c>
       <c r="Q165" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -9601,14 +9601,14 @@
         <v>134</v>
       </c>
       <c r="O166" s="1" t="str">
-        <f>_xlfn.CONCAT(D166, ", ", E166)</f>
+        <f t="shared" si="2"/>
         <v>-84.41572, 30.62466</v>
       </c>
       <c r="Q166" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -9643,14 +9643,14 @@
         <v>134</v>
       </c>
       <c r="O167" s="1" t="str">
-        <f>_xlfn.CONCAT(D167, ", ", E167)</f>
+        <f t="shared" si="2"/>
         <v>-84.4155, 30.62564</v>
       </c>
       <c r="Q167" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -9685,14 +9685,14 @@
         <v>134</v>
       </c>
       <c r="O168" s="1" t="str">
-        <f>_xlfn.CONCAT(D168, ", ", E168)</f>
+        <f t="shared" si="2"/>
         <v>-84.41529, 30.63087</v>
       </c>
       <c r="Q168" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -9727,14 +9727,14 @@
         <v>134</v>
       </c>
       <c r="O169" s="1" t="str">
-        <f>_xlfn.CONCAT(D169, ", ", E169)</f>
+        <f t="shared" si="2"/>
         <v>-84.663, 30.61955</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -9769,14 +9769,14 @@
         <v>134</v>
       </c>
       <c r="O170" s="1" t="str">
-        <f>_xlfn.CONCAT(D170, ", ", E170)</f>
+        <f t="shared" si="2"/>
         <v>-84.66302, 30.61955</v>
       </c>
       <c r="Q170" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -9805,14 +9805,14 @@
         <v>231</v>
       </c>
       <c r="O171" s="1" t="str">
-        <f>_xlfn.CONCAT(D171, ", ", E171)</f>
+        <f t="shared" si="2"/>
         <v>-83.87008, 30.54101</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -9841,14 +9841,14 @@
         <v>231</v>
       </c>
       <c r="O172" s="1" t="str">
-        <f>_xlfn.CONCAT(D172, ", ", E172)</f>
+        <f t="shared" si="2"/>
         <v>-83.86999, 30.5455</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -9877,14 +9877,14 @@
         <v>231</v>
       </c>
       <c r="O173" s="1" t="str">
-        <f>_xlfn.CONCAT(D173, ", ", E173)</f>
+        <f t="shared" si="2"/>
         <v>-83.87106, 30.54541</v>
       </c>
       <c r="Q173" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -9913,14 +9913,14 @@
         <v>231</v>
       </c>
       <c r="O174" s="1" t="str">
-        <f>_xlfn.CONCAT(D174, ", ", E174)</f>
+        <f t="shared" si="2"/>
         <v>-83.88576, 30.54479</v>
       </c>
       <c r="Q174" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -9949,14 +9949,14 @@
         <v>231</v>
       </c>
       <c r="O175" s="1" t="str">
-        <f>_xlfn.CONCAT(D175, ", ", E175)</f>
+        <f t="shared" si="2"/>
         <v>-83.88225, 30.54477</v>
       </c>
       <c r="Q175" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -9985,14 +9985,14 @@
         <v>231</v>
       </c>
       <c r="O176" s="1" t="str">
-        <f>_xlfn.CONCAT(D176, ", ", E176)</f>
+        <f t="shared" si="2"/>
         <v>-83.88134, 30.54518</v>
       </c>
       <c r="Q176" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10021,14 +10021,14 @@
         <v>231</v>
       </c>
       <c r="O177" s="1" t="str">
-        <f>_xlfn.CONCAT(D177, ", ", E177)</f>
+        <f t="shared" si="2"/>
         <v>-83.88721, 30.54515</v>
       </c>
       <c r="Q177" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10057,14 +10057,14 @@
         <v>134</v>
       </c>
       <c r="O178" s="1" t="str">
-        <f>_xlfn.CONCAT(D178, ", ", E178)</f>
+        <f t="shared" si="2"/>
         <v>-84.74337, 30.56907</v>
       </c>
       <c r="Q178" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10093,14 +10093,14 @@
         <v>134</v>
       </c>
       <c r="O179" s="1" t="str">
-        <f>_xlfn.CONCAT(D179, ", ", E179)</f>
+        <f t="shared" si="2"/>
         <v>-84.74223, 30.56718</v>
       </c>
       <c r="Q179" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10129,14 +10129,14 @@
         <v>134</v>
       </c>
       <c r="O180" s="1" t="str">
-        <f>_xlfn.CONCAT(D180, ", ", E180)</f>
+        <f t="shared" si="2"/>
         <v>-84.74118, 30.56756</v>
       </c>
       <c r="Q180" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10165,14 +10165,14 @@
         <v>134</v>
       </c>
       <c r="O181" s="1" t="str">
-        <f>_xlfn.CONCAT(D181, ", ", E181)</f>
+        <f t="shared" si="2"/>
         <v>-84.74184, 30.56997</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10201,14 +10201,14 @@
         <v>134</v>
       </c>
       <c r="O182" s="1" t="str">
-        <f>_xlfn.CONCAT(D182, ", ", E182)</f>
+        <f t="shared" si="2"/>
         <v>-84.74802, 30.56741</v>
       </c>
       <c r="Q182" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -10237,14 +10237,14 @@
         <v>134</v>
       </c>
       <c r="O183" s="1" t="str">
-        <f>_xlfn.CONCAT(D183, ", ", E183)</f>
+        <f t="shared" si="2"/>
         <v>-84.70636, 30.52269</v>
       </c>
       <c r="Q183" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10273,14 +10273,14 @@
         <v>134</v>
       </c>
       <c r="O184" s="1" t="str">
-        <f>_xlfn.CONCAT(D184, ", ", E184)</f>
+        <f t="shared" si="2"/>
         <v>-84.62643, 30.47091</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10309,14 +10309,14 @@
         <v>53</v>
       </c>
       <c r="O185" s="1" t="str">
-        <f>_xlfn.CONCAT(D185, ", ", E185)</f>
+        <f t="shared" si="2"/>
         <v>-84.315164, 30.120614</v>
       </c>
       <c r="Q185" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10345,14 +10345,14 @@
         <v>53</v>
       </c>
       <c r="O186" s="1" t="str">
-        <f>_xlfn.CONCAT(D186, ", ", E186)</f>
+        <f t="shared" si="2"/>
         <v>-84.32346, 30.10754</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10381,14 +10381,14 @@
         <v>53</v>
       </c>
       <c r="O187" s="1" t="str">
-        <f>_xlfn.CONCAT(D187, ", ", E187)</f>
+        <f t="shared" si="2"/>
         <v>-84.323138, 30.11</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10417,14 +10417,14 @@
         <v>53</v>
       </c>
       <c r="O188" s="1" t="str">
-        <f>_xlfn.CONCAT(D188, ", ", E188)</f>
+        <f t="shared" si="2"/>
         <v>-84.373695, 30.113705</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10453,14 +10453,14 @@
         <v>53</v>
       </c>
       <c r="O189" s="1" t="str">
-        <f>_xlfn.CONCAT(D189, ", ", E189)</f>
+        <f t="shared" si="2"/>
         <v>-84.383714, 30.100637</v>
       </c>
       <c r="Q189" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10489,14 +10489,14 @@
         <v>53</v>
       </c>
       <c r="O190" s="1" t="str">
-        <f>_xlfn.CONCAT(D190, ", ", E190)</f>
+        <f t="shared" si="2"/>
         <v>-84.375808, 30.174654</v>
       </c>
       <c r="Q190" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10525,14 +10525,14 @@
         <v>53</v>
       </c>
       <c r="O191" s="1" t="str">
-        <f>_xlfn.CONCAT(D191, ", ", E191)</f>
+        <f t="shared" si="2"/>
         <v>-84.375191, 30.174235</v>
       </c>
       <c r="Q191" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10561,14 +10561,14 @@
         <v>32</v>
       </c>
       <c r="O192" s="1" t="str">
-        <f>_xlfn.CONCAT(D192, ", ", E192)</f>
+        <f t="shared" si="2"/>
         <v>-84.21842, 30.56248</v>
       </c>
       <c r="Q192" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10597,14 +10597,14 @@
         <v>32</v>
       </c>
       <c r="O193" s="1" t="str">
-        <f>_xlfn.CONCAT(D193, ", ", E193)</f>
+        <f t="shared" si="2"/>
         <v>-84.21943, 30.53108</v>
       </c>
       <c r="Q193" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="194" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>32</v>
       </c>
       <c r="O194" s="1" t="str">
-        <f>_xlfn.CONCAT(D194, ", ", E194)</f>
+        <f t="shared" ref="O194:O257" si="3">_xlfn.CONCAT(D194, ", ", E194)</f>
         <v>-84.305026, 30.446288</v>
       </c>
       <c r="P194" s="3"/>
@@ -10659,7 +10659,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="195" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>32</v>
       </c>
       <c r="O195" s="1" t="str">
-        <f>_xlfn.CONCAT(D195, ", ", E195)</f>
+        <f t="shared" si="3"/>
         <v>-84.3056683, 30.4480882</v>
       </c>
       <c r="P195" s="3"/>
@@ -10714,7 +10714,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="196" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>32</v>
       </c>
       <c r="O196" s="1" t="str">
-        <f>_xlfn.CONCAT(D196, ", ", E196)</f>
+        <f t="shared" si="3"/>
         <v>-84.303998, 30.446145</v>
       </c>
       <c r="P196" s="3"/>
@@ -10769,7 +10769,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>32</v>
       </c>
       <c r="O197" s="1" t="str">
-        <f>_xlfn.CONCAT(D197, ", ", E197)</f>
+        <f t="shared" si="3"/>
         <v>-84.307128, 30.444701</v>
       </c>
       <c r="Q197" s="1" t="s">
@@ -10824,7 +10824,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>32</v>
       </c>
       <c r="O198" s="1" t="str">
-        <f>_xlfn.CONCAT(D198, ", ", E198)</f>
+        <f t="shared" si="3"/>
         <v>-84.306901, 30.444911</v>
       </c>
       <c r="Q198" s="1" t="s">
@@ -10879,7 +10879,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10923,7 +10923,7 @@
         <v>32</v>
       </c>
       <c r="O199" s="1" t="str">
-        <f>_xlfn.CONCAT(D199, ", ", E199)</f>
+        <f t="shared" si="3"/>
         <v>-84.307119, 30.445131</v>
       </c>
       <c r="Q199" s="1" t="s">
@@ -10934,7 +10934,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>32</v>
       </c>
       <c r="O200" s="1" t="str">
-        <f>_xlfn.CONCAT(D200, ", ", E200)</f>
+        <f t="shared" si="3"/>
         <v>-84.305676, 30.447952</v>
       </c>
       <c r="Q200" s="1" t="s">
@@ -10989,7 +10989,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>32</v>
       </c>
       <c r="O201" s="1" t="str">
-        <f>_xlfn.CONCAT(D201, ", ", E201)</f>
+        <f t="shared" si="3"/>
         <v>-84.305285, 30.44807</v>
       </c>
       <c r="Q201" s="1" t="s">
@@ -11044,7 +11044,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>32</v>
       </c>
       <c r="O202" s="1" t="str">
-        <f>_xlfn.CONCAT(D202, ", ", E202)</f>
+        <f t="shared" si="3"/>
         <v>-84.305295, 30.448083</v>
       </c>
       <c r="Q202" s="1" t="s">
@@ -11099,7 +11099,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>32</v>
       </c>
       <c r="O203" s="1" t="str">
-        <f>_xlfn.CONCAT(D203, ", ", E203)</f>
+        <f t="shared" si="3"/>
         <v>-84.305422, 30.447717</v>
       </c>
       <c r="Q203" s="1" t="s">
@@ -11154,7 +11154,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>32</v>
       </c>
       <c r="O204" s="1" t="str">
-        <f>_xlfn.CONCAT(D204, ", ", E204)</f>
+        <f t="shared" si="3"/>
         <v>-84.305618, 30.44767</v>
       </c>
       <c r="Q204" s="1" t="s">
@@ -11209,7 +11209,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>32</v>
       </c>
       <c r="O205" s="1" t="str">
-        <f>_xlfn.CONCAT(D205, ", ", E205)</f>
+        <f t="shared" si="3"/>
         <v>-84.305918, 30.446396</v>
       </c>
       <c r="Q205" s="1" t="s">
@@ -11264,7 +11264,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>32</v>
       </c>
       <c r="O206" s="1" t="str">
-        <f>_xlfn.CONCAT(D206, ", ", E206)</f>
+        <f t="shared" si="3"/>
         <v>-84.306102, 30.446413</v>
       </c>
       <c r="Q206" s="1" t="s">
@@ -11319,7 +11319,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -11363,7 +11363,7 @@
         <v>32</v>
       </c>
       <c r="O207" s="1" t="str">
-        <f>_xlfn.CONCAT(D207, ", ", E207)</f>
+        <f t="shared" si="3"/>
         <v>-84.30625, 30.446344</v>
       </c>
       <c r="Q207" s="1" t="s">
@@ -11374,7 +11374,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -11418,7 +11418,7 @@
         <v>32</v>
       </c>
       <c r="O208" s="1" t="str">
-        <f>_xlfn.CONCAT(D208, ", ", E208)</f>
+        <f t="shared" si="3"/>
         <v>-84.306049, 30.446447</v>
       </c>
       <c r="Q208" s="1" t="s">
@@ -11429,7 +11429,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>32</v>
       </c>
       <c r="O209" s="1" t="str">
-        <f>_xlfn.CONCAT(D209, ", ", E209)</f>
+        <f t="shared" si="3"/>
         <v>-84.305464, 30.446498</v>
       </c>
       <c r="Q209" s="1" t="s">
@@ -11484,7 +11484,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>32</v>
       </c>
       <c r="O210" s="1" t="str">
-        <f>_xlfn.CONCAT(D210, ", ", E210)</f>
+        <f t="shared" si="3"/>
         <v>-84.304534, 30.446043</v>
       </c>
       <c r="Q210" s="1" t="s">
@@ -11539,7 +11539,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -11583,7 +11583,7 @@
         <v>32</v>
       </c>
       <c r="O211" s="1" t="str">
-        <f>_xlfn.CONCAT(D211, ", ", E211)</f>
+        <f t="shared" si="3"/>
         <v>-84.304038, 30.446166</v>
       </c>
       <c r="Q211" s="1" t="s">
@@ -11594,7 +11594,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>32</v>
       </c>
       <c r="O212" s="1" t="str">
-        <f>_xlfn.CONCAT(D212, ", ", E212)</f>
+        <f t="shared" si="3"/>
         <v>-84.303162, 30.446025</v>
       </c>
       <c r="Q212" s="1" t="s">
@@ -11649,7 +11649,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>32</v>
       </c>
       <c r="O213" s="1" t="str">
-        <f>_xlfn.CONCAT(D213, ", ", E213)</f>
+        <f t="shared" si="3"/>
         <v>-84.30292, 30.44567</v>
       </c>
       <c r="Q213" s="1" t="s">
@@ -11704,7 +11704,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>32</v>
       </c>
       <c r="O214" s="1" t="str">
-        <f>_xlfn.CONCAT(D214, ", ", E214)</f>
+        <f t="shared" si="3"/>
         <v>-84.305181, 30.444348</v>
       </c>
       <c r="Q214" s="1" t="s">
@@ -11759,7 +11759,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>32</v>
       </c>
       <c r="O215" s="1" t="str">
-        <f>_xlfn.CONCAT(D215, ", ", E215)</f>
+        <f t="shared" si="3"/>
         <v>-84.305322, 30.444347</v>
       </c>
       <c r="Q215" s="1" t="s">
@@ -11814,7 +11814,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>32</v>
       </c>
       <c r="O216" s="1" t="str">
-        <f>_xlfn.CONCAT(D216, ", ", E216)</f>
+        <f t="shared" si="3"/>
         <v>-84.305017, 30.443949</v>
       </c>
       <c r="Q216" s="1" t="s">
@@ -11869,7 +11869,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11913,7 +11913,7 @@
         <v>32</v>
       </c>
       <c r="O217" s="1" t="str">
-        <f>_xlfn.CONCAT(D217, ", ", E217)</f>
+        <f t="shared" si="3"/>
         <v>-84.305436, 30.444014</v>
       </c>
       <c r="Q217" s="1" t="s">
@@ -11924,7 +11924,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11968,7 +11968,7 @@
         <v>32</v>
       </c>
       <c r="O218" s="1" t="str">
-        <f>_xlfn.CONCAT(D218, ", ", E218)</f>
+        <f t="shared" si="3"/>
         <v>-84.305387, 30.445459</v>
       </c>
       <c r="Q218" s="1" t="s">
@@ -11979,7 +11979,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>32</v>
       </c>
       <c r="O219" s="1" t="str">
-        <f>_xlfn.CONCAT(D219, ", ", E219)</f>
+        <f t="shared" si="3"/>
         <v>-84.305353, 30.44545</v>
       </c>
       <c r="Q219" s="1" t="s">
@@ -12034,7 +12034,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>32</v>
       </c>
       <c r="O220" s="1" t="str">
-        <f>_xlfn.CONCAT(D220, ", ", E220)</f>
+        <f t="shared" si="3"/>
         <v>-84.305139, 30.445353</v>
       </c>
       <c r="Q220" s="1" t="s">
@@ -12089,7 +12089,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>32</v>
       </c>
       <c r="O221" s="1" t="str">
-        <f>_xlfn.CONCAT(D221, ", ", E221)</f>
+        <f t="shared" si="3"/>
         <v>-84.305218, 30.445358</v>
       </c>
       <c r="Q221" s="1" t="s">
@@ -12144,7 +12144,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>32</v>
       </c>
       <c r="O222" s="1" t="str">
-        <f>_xlfn.CONCAT(D222, ", ", E222)</f>
+        <f t="shared" si="3"/>
         <v>-84.305195, 30.445375</v>
       </c>
       <c r="Q222" s="1" t="s">
@@ -12199,7 +12199,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>32</v>
       </c>
       <c r="O223" s="1" t="str">
-        <f>_xlfn.CONCAT(D223, ", ", E223)</f>
+        <f t="shared" si="3"/>
         <v>-84.305045, 30.445252</v>
       </c>
       <c r="Q223" s="1" t="s">
@@ -12254,7 +12254,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>32</v>
       </c>
       <c r="O224" s="1" t="str">
-        <f>_xlfn.CONCAT(D224, ", ", E224)</f>
+        <f t="shared" si="3"/>
         <v>-84.304703, 30.445238</v>
       </c>
       <c r="Q224" s="1" t="s">
@@ -12309,7 +12309,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -12353,7 +12353,7 @@
         <v>32</v>
       </c>
       <c r="O225" s="1" t="str">
-        <f>_xlfn.CONCAT(D225, ", ", E225)</f>
+        <f t="shared" si="3"/>
         <v>-84.304923, 30.445238</v>
       </c>
       <c r="Q225" s="1" t="s">
@@ -12364,7 +12364,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>32</v>
       </c>
       <c r="O226" s="1" t="str">
-        <f>_xlfn.CONCAT(D226, ", ", E226)</f>
+        <f t="shared" si="3"/>
         <v>-84.304796, 30.445222</v>
       </c>
       <c r="Q226" s="1" t="s">
@@ -12419,7 +12419,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>32</v>
       </c>
       <c r="O227" s="1" t="str">
-        <f>_xlfn.CONCAT(D227, ", ", E227)</f>
+        <f t="shared" si="3"/>
         <v>-84.30439, 30.445167</v>
       </c>
       <c r="Q227" s="1" t="s">
@@ -12474,7 +12474,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>32</v>
       </c>
       <c r="O228" s="1" t="str">
-        <f>_xlfn.CONCAT(D228, ", ", E228)</f>
+        <f t="shared" si="3"/>
         <v>-84.304648, 30.445219</v>
       </c>
       <c r="Q228" s="1" t="s">
@@ -12529,7 +12529,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>32</v>
       </c>
       <c r="O229" s="1" t="str">
-        <f>_xlfn.CONCAT(D229, ", ", E229)</f>
+        <f t="shared" si="3"/>
         <v>-84.2999, 30.444309</v>
       </c>
       <c r="Q229" s="1" t="s">
@@ -12584,7 +12584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>32</v>
       </c>
       <c r="O230" s="1" t="str">
-        <f>_xlfn.CONCAT(D230, ", ", E230)</f>
+        <f t="shared" si="3"/>
         <v>-84.3023, 30.44377</v>
       </c>
       <c r="Q230" s="1" t="s">
@@ -12624,7 +12624,7 @@
       </c>
       <c r="R230" s="7"/>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>32</v>
       </c>
       <c r="O231" s="1" t="str">
-        <f>_xlfn.CONCAT(D231, ", ", E231)</f>
+        <f t="shared" si="3"/>
         <v>-84.3024, 30.44366</v>
       </c>
       <c r="Q231" s="1" t="s">
@@ -12664,7 +12664,7 @@
       </c>
       <c r="R231" s="7"/>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>32</v>
       </c>
       <c r="O232" s="1" t="str">
-        <f>_xlfn.CONCAT(D232, ", ", E232)</f>
+        <f t="shared" si="3"/>
         <v>-84.29644, 30.44661</v>
       </c>
       <c r="Q232" s="1" t="s">
@@ -12704,7 +12704,7 @@
       </c>
       <c r="R232" s="7"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -12736,7 +12736,7 @@
         <v>32</v>
       </c>
       <c r="O233" s="1" t="str">
-        <f>_xlfn.CONCAT(D233, ", ", E233)</f>
+        <f t="shared" si="3"/>
         <v>-85.3009, 30.444475</v>
       </c>
       <c r="P233" s="4"/>
@@ -12745,7 +12745,7 @@
       </c>
       <c r="R233" s="7"/>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v>32</v>
       </c>
       <c r="O234" s="1" t="str">
-        <f>_xlfn.CONCAT(D234, ", ", E234)</f>
+        <f t="shared" si="3"/>
         <v>-84.29992, 30.44428</v>
       </c>
       <c r="Q234" s="1" t="s">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="R234" s="7"/>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>32</v>
       </c>
       <c r="O235" s="1" t="str">
-        <f>_xlfn.CONCAT(D235, ", ", E235)</f>
+        <f t="shared" si="3"/>
         <v>-84.29796, 30.44378</v>
       </c>
       <c r="Q235" s="1" t="s">
@@ -12825,7 +12825,7 @@
       </c>
       <c r="R235" s="7"/>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -12857,7 +12857,7 @@
         <v>32</v>
       </c>
       <c r="O236" s="1" t="str">
-        <f>_xlfn.CONCAT(D236, ", ", E236)</f>
+        <f t="shared" si="3"/>
         <v>-84.29793, 30.44376</v>
       </c>
       <c r="Q236" s="1" t="s">
@@ -12865,7 +12865,7 @@
       </c>
       <c r="R236" s="7"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>32</v>
       </c>
       <c r="O237" s="1" t="str">
-        <f>_xlfn.CONCAT(D237, ", ", E237)</f>
+        <f t="shared" si="3"/>
         <v>-84.29783, 30.44349</v>
       </c>
       <c r="Q237" s="1" t="s">
@@ -12905,7 +12905,7 @@
       </c>
       <c r="R237" s="7"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>32</v>
       </c>
       <c r="O238" s="1" t="str">
-        <f>_xlfn.CONCAT(D238, ", ", E238)</f>
+        <f t="shared" si="3"/>
         <v>-84.29785, 30.44341</v>
       </c>
       <c r="Q238" s="1" t="s">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="R238" s="7"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>32</v>
       </c>
       <c r="O239" s="1" t="str">
-        <f>_xlfn.CONCAT(D239, ", ", E239)</f>
+        <f t="shared" si="3"/>
         <v>-84.2978, 30.44351</v>
       </c>
       <c r="Q239" s="1" t="s">
@@ -12985,7 +12985,7 @@
       </c>
       <c r="R239" s="7"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -13017,7 +13017,7 @@
         <v>32</v>
       </c>
       <c r="O240" s="1" t="str">
-        <f>_xlfn.CONCAT(D240, ", ", E240)</f>
+        <f t="shared" si="3"/>
         <v>-84.29714, 30.44341</v>
       </c>
       <c r="Q240" s="1" t="s">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="R240" s="7"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>32</v>
       </c>
       <c r="O241" s="1" t="str">
-        <f>_xlfn.CONCAT(D241, ", ", E241)</f>
+        <f t="shared" si="3"/>
         <v>-84.29723, 30.44342</v>
       </c>
       <c r="Q241" s="1" t="s">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="R241" s="7"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>32</v>
       </c>
       <c r="O242" s="1" t="str">
-        <f>_xlfn.CONCAT(D242, ", ", E242)</f>
+        <f t="shared" si="3"/>
         <v>-84.29726, 30.44337</v>
       </c>
       <c r="Q242" s="1" t="s">
@@ -13105,7 +13105,7 @@
       </c>
       <c r="R242" s="7"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>32</v>
       </c>
       <c r="O243" s="1" t="str">
-        <f>_xlfn.CONCAT(D243, ", ", E243)</f>
+        <f t="shared" si="3"/>
         <v>-84.29681, 30.44336</v>
       </c>
       <c r="Q243" s="1" t="s">
@@ -13145,7 +13145,7 @@
       </c>
       <c r="R243" s="7"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -13177,7 +13177,7 @@
         <v>32</v>
       </c>
       <c r="O244" s="1" t="str">
-        <f>_xlfn.CONCAT(D244, ", ", E244)</f>
+        <f t="shared" si="3"/>
         <v>-84.29693, 30.44335</v>
       </c>
       <c r="Q244" s="1" t="s">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="R244" s="7"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>32</v>
       </c>
       <c r="O245" s="1" t="str">
-        <f>_xlfn.CONCAT(D245, ", ", E245)</f>
+        <f t="shared" si="3"/>
         <v>-84.29685, 30.44358</v>
       </c>
       <c r="Q245" s="1" t="s">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="R245" s="7"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>32</v>
       </c>
       <c r="O246" s="1" t="str">
-        <f>_xlfn.CONCAT(D246, ", ", E246)</f>
+        <f t="shared" si="3"/>
         <v>-84.2964, 30.44464</v>
       </c>
       <c r="Q246" s="1" t="s">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="R246" s="7"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -13297,7 +13297,7 @@
         <v>32</v>
       </c>
       <c r="O247" s="1" t="str">
-        <f>_xlfn.CONCAT(D247, ", ", E247)</f>
+        <f t="shared" si="3"/>
         <v>-84.29639, 30.44459</v>
       </c>
       <c r="Q247" s="1" t="s">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="R247" s="7"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -13337,7 +13337,7 @@
         <v>32</v>
       </c>
       <c r="O248" s="1" t="str">
-        <f>_xlfn.CONCAT(D248, ", ", E248)</f>
+        <f t="shared" si="3"/>
         <v>-84.2788, 30.45372</v>
       </c>
       <c r="Q248" s="1" t="s">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="R248" s="7"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>32</v>
       </c>
       <c r="O249" s="1" t="str">
-        <f>_xlfn.CONCAT(D249, ", ", E249)</f>
+        <f t="shared" si="3"/>
         <v>-84.3057, 30.448</v>
       </c>
       <c r="Q249" s="1" t="s">
@@ -13385,7 +13385,7 @@
       </c>
       <c r="R249" s="7"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -13417,7 +13417,7 @@
         <v>32</v>
       </c>
       <c r="O250" s="1" t="str">
-        <f>_xlfn.CONCAT(D250, ", ", E250)</f>
+        <f t="shared" si="3"/>
         <v>-84.3057, 30.44809</v>
       </c>
       <c r="Q250" s="1" t="s">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="R250" s="7"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>32</v>
       </c>
       <c r="O251" s="1" t="str">
-        <f>_xlfn.CONCAT(D251, ", ", E251)</f>
+        <f t="shared" si="3"/>
         <v>-84.303, 30.44629</v>
       </c>
       <c r="Q251" s="1" t="s">
@@ -13465,7 +13465,7 @@
       </c>
       <c r="R251" s="7"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>32</v>
       </c>
       <c r="O252" s="1" t="str">
-        <f>_xlfn.CONCAT(D252, ", ", E252)</f>
+        <f t="shared" si="3"/>
         <v>-84.3045, 30.44613</v>
       </c>
       <c r="Q252" s="1" t="s">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="R252" s="7"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>32</v>
       </c>
       <c r="O253" s="1" t="str">
-        <f>_xlfn.CONCAT(D253, ", ", E253)</f>
+        <f t="shared" si="3"/>
         <v>-84.3029, 30.4457</v>
       </c>
       <c r="Q253" s="1" t="s">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="R253" s="7"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -13577,7 +13577,7 @@
         <v>32</v>
       </c>
       <c r="O254" s="1" t="str">
-        <f>_xlfn.CONCAT(D254, ", ", E254)</f>
+        <f t="shared" si="3"/>
         <v>-84.304, 30.44624</v>
       </c>
       <c r="Q254" s="1" t="s">
@@ -13585,7 +13585,7 @@
       </c>
       <c r="R254" s="7"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>32</v>
       </c>
       <c r="O255" s="1" t="str">
-        <f>_xlfn.CONCAT(D255, ", ", E255)</f>
+        <f t="shared" si="3"/>
         <v>-84.304, 30.44615</v>
       </c>
       <c r="Q255" s="1" t="s">
@@ -13625,7 +13625,7 @@
       </c>
       <c r="R255" s="7"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>32</v>
       </c>
       <c r="O256" s="1" t="str">
-        <f>_xlfn.CONCAT(D256, ", ", E256)</f>
+        <f t="shared" si="3"/>
         <v>-84.2999, 30.44433</v>
       </c>
       <c r="Q256" s="1" t="s">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="R256" s="7"/>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -13703,7 +13703,7 @@
         <v>436</v>
       </c>
       <c r="O257" s="1" t="str">
-        <f>_xlfn.CONCAT(D257, ", ", E257)</f>
+        <f t="shared" si="3"/>
         <v>-82.30041, 29.674077</v>
       </c>
       <c r="Q257" s="1" t="s">
@@ -13716,7 +13716,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>436</v>
       </c>
       <c r="O258" s="1" t="str">
-        <f>_xlfn.CONCAT(D258, ", ", E258)</f>
+        <f t="shared" ref="O258:O321" si="4">_xlfn.CONCAT(D258, ", ", E258)</f>
         <v>-82.286534, 29.688103</v>
       </c>
       <c r="Q258" s="1" t="s">
@@ -13764,7 +13764,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>436</v>
       </c>
       <c r="O259" s="1" t="str">
-        <f>_xlfn.CONCAT(D259, ", ", E259)</f>
+        <f t="shared" si="4"/>
         <v>-82.306604, 29.651894</v>
       </c>
       <c r="Q259" s="1" t="s">
@@ -13812,7 +13812,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -13850,14 +13850,14 @@
         <v>32</v>
       </c>
       <c r="O260" s="1" t="str">
-        <f>_xlfn.CONCAT(D260, ", ", E260)</f>
+        <f t="shared" si="4"/>
         <v>-84.289429, 30.44879</v>
       </c>
       <c r="Q260" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -13895,14 +13895,14 @@
         <v>32</v>
       </c>
       <c r="O261" s="1" t="str">
-        <f>_xlfn.CONCAT(D261, ", ", E261)</f>
+        <f t="shared" si="4"/>
         <v>-84.290209, 30.440588</v>
       </c>
       <c r="Q261" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -13940,14 +13940,14 @@
         <v>32</v>
       </c>
       <c r="O262" s="1" t="str">
-        <f>_xlfn.CONCAT(D262, ", ", E262)</f>
+        <f t="shared" si="4"/>
         <v>-84.291937, 30.441281</v>
       </c>
       <c r="Q262" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -13985,14 +13985,14 @@
         <v>32</v>
       </c>
       <c r="O263" s="1" t="str">
-        <f>_xlfn.CONCAT(D263, ", ", E263)</f>
+        <f t="shared" si="4"/>
         <v>-84.303939, 30.146472</v>
       </c>
       <c r="Q263" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -14030,14 +14030,14 @@
         <v>32</v>
       </c>
       <c r="O264" s="1" t="str">
-        <f>_xlfn.CONCAT(D264, ", ", E264)</f>
+        <f t="shared" si="4"/>
         <v>-84.304858, 30.445265</v>
       </c>
       <c r="Q264" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -14075,14 +14075,14 @@
         <v>32</v>
       </c>
       <c r="O265" s="1" t="str">
-        <f>_xlfn.CONCAT(D265, ", ", E265)</f>
+        <f t="shared" si="4"/>
         <v>-84.305658, 30.448069</v>
       </c>
       <c r="Q265" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -14120,14 +14120,14 @@
         <v>32</v>
       </c>
       <c r="O266" s="1" t="str">
-        <f>_xlfn.CONCAT(D266, ", ", E266)</f>
+        <f t="shared" si="4"/>
         <v>-84.296269, 30.444621</v>
       </c>
       <c r="Q266" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -14165,14 +14165,14 @@
         <v>32</v>
       </c>
       <c r="O267" s="1" t="str">
-        <f>_xlfn.CONCAT(D267, ", ", E267)</f>
+        <f t="shared" si="4"/>
         <v>-84.295075, 30.444063</v>
       </c>
       <c r="Q267" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -14210,14 +14210,14 @@
         <v>32</v>
       </c>
       <c r="O268" s="1" t="str">
-        <f>_xlfn.CONCAT(D268, ", ", E268)</f>
+        <f t="shared" si="4"/>
         <v>-84.300192, 30.440633</v>
       </c>
       <c r="Q268" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -14249,7 +14249,7 @@
         <v>84</v>
       </c>
       <c r="O269" s="1" t="str">
-        <f>_xlfn.CONCAT(D269, ", ", E269)</f>
+        <f t="shared" si="4"/>
         <v>-81.51024, 28.507357</v>
       </c>
       <c r="Q269" s="1" t="s">
@@ -14259,7 +14259,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -14291,7 +14291,7 @@
         <v>84</v>
       </c>
       <c r="O270" s="1" t="str">
-        <f>_xlfn.CONCAT(D270, ", ", E270)</f>
+        <f t="shared" si="4"/>
         <v>-81.510273, 28.50727</v>
       </c>
       <c r="Q270" s="1" t="s">
@@ -14301,7 +14301,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>84</v>
       </c>
       <c r="O271" s="1" t="str">
-        <f>_xlfn.CONCAT(D271, ", ", E271)</f>
+        <f t="shared" si="4"/>
         <v>-81.521889, 28.50606</v>
       </c>
       <c r="Q271" s="1" t="s">
@@ -14343,7 +14343,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>84</v>
       </c>
       <c r="O272" s="1" t="str">
-        <f>_xlfn.CONCAT(D272, ", ", E272)</f>
+        <f t="shared" si="4"/>
         <v>-81.521813, 28.506131</v>
       </c>
       <c r="Q272" s="1" t="s">
@@ -14385,7 +14385,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -14417,7 +14417,7 @@
         <v>436</v>
       </c>
       <c r="O273" s="1" t="str">
-        <f>_xlfn.CONCAT(D273, ", ", E273)</f>
+        <f t="shared" si="4"/>
         <v>-82.372224, 29.637568</v>
       </c>
       <c r="Q273" s="1" t="s">
@@ -14427,7 +14427,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -14459,7 +14459,7 @@
         <v>436</v>
       </c>
       <c r="O274" s="1" t="str">
-        <f>_xlfn.CONCAT(D274, ", ", E274)</f>
+        <f t="shared" si="4"/>
         <v>-82.372423, 29.637811</v>
       </c>
       <c r="Q274" s="1" t="s">
@@ -14469,7 +14469,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>436</v>
       </c>
       <c r="O275" s="1" t="str">
-        <f>_xlfn.CONCAT(D275, ", ", E275)</f>
+        <f t="shared" si="4"/>
         <v>-82.369272, 29.637482</v>
       </c>
       <c r="Q275" s="1" t="s">
@@ -14511,7 +14511,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -14543,7 +14543,7 @@
         <v>436</v>
       </c>
       <c r="O276" s="1" t="str">
-        <f>_xlfn.CONCAT(D276, ", ", E276)</f>
+        <f t="shared" si="4"/>
         <v>-82.36838, 29.637999</v>
       </c>
       <c r="Q276" s="1" t="s">
@@ -14553,7 +14553,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -14585,7 +14585,7 @@
         <v>436</v>
       </c>
       <c r="O277" s="1" t="str">
-        <f>_xlfn.CONCAT(D277, ", ", E277)</f>
+        <f t="shared" si="4"/>
         <v>-82.368265, 29.637914</v>
       </c>
       <c r="Q277" s="1" t="s">
@@ -14595,7 +14595,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>436</v>
       </c>
       <c r="O278" s="1" t="str">
-        <f>_xlfn.CONCAT(D278, ", ", E278)</f>
+        <f t="shared" si="4"/>
         <v>-82.372278, 29.637746</v>
       </c>
       <c r="Q278" s="1" t="s">
@@ -14637,7 +14637,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>436</v>
       </c>
       <c r="O279" s="1" t="str">
-        <f>_xlfn.CONCAT(D279, ", ", E279)</f>
+        <f t="shared" si="4"/>
         <v>-82.373464, 29.638192</v>
       </c>
       <c r="Q279" s="1" t="s">
@@ -14679,7 +14679,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -14711,7 +14711,7 @@
         <v>436</v>
       </c>
       <c r="O280" s="1" t="str">
-        <f>_xlfn.CONCAT(D280, ", ", E280)</f>
+        <f t="shared" si="4"/>
         <v>-82.373713, 29.63504</v>
       </c>
       <c r="Q280" s="1" t="s">
@@ -14721,7 +14721,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -14753,14 +14753,14 @@
         <v>440</v>
       </c>
       <c r="O281" s="1" t="str">
-        <f>_xlfn.CONCAT(D281, ", ", E281)</f>
+        <f t="shared" si="4"/>
         <v>-87.85, 30.67</v>
       </c>
       <c r="Q281" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -14792,14 +14792,14 @@
         <v>440</v>
       </c>
       <c r="O282" s="1" t="str">
-        <f>_xlfn.CONCAT(D282, ", ", E282)</f>
+        <f t="shared" si="4"/>
         <v>-87.85, 30.67</v>
       </c>
       <c r="Q282" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -14831,14 +14831,14 @@
         <v>440</v>
       </c>
       <c r="O283" s="1" t="str">
-        <f>_xlfn.CONCAT(D283, ", ", E283)</f>
+        <f t="shared" si="4"/>
         <v>-87.85, 30.67</v>
       </c>
       <c r="Q283" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -14870,14 +14870,14 @@
         <v>453</v>
       </c>
       <c r="O284" s="1" t="str">
-        <f>_xlfn.CONCAT(D284, ", ", E284)</f>
+        <f t="shared" si="4"/>
         <v>-87.218, 30.5437</v>
       </c>
       <c r="Q284" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -14909,14 +14909,14 @@
         <v>453</v>
       </c>
       <c r="O285" s="1" t="str">
-        <f>_xlfn.CONCAT(D285, ", ", E285)</f>
+        <f t="shared" si="4"/>
         <v>-87.21986, 30.5446</v>
       </c>
       <c r="Q285" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -14948,14 +14948,14 @@
         <v>455</v>
       </c>
       <c r="O286" s="1" t="str">
-        <f>_xlfn.CONCAT(D286, ", ", E286)</f>
+        <f t="shared" si="4"/>
         <v>-87.0761, 30.607</v>
       </c>
       <c r="Q286" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -14987,7 +14987,7 @@
         <v>436</v>
       </c>
       <c r="O287" s="1" t="str">
-        <f>_xlfn.CONCAT(D287, ", ", E287)</f>
+        <f t="shared" si="4"/>
         <v>-82.373713, 29.635042</v>
       </c>
       <c r="Q287" s="1" t="s">
@@ -14997,7 +14997,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>436</v>
       </c>
       <c r="O288" s="1" t="str">
-        <f>_xlfn.CONCAT(D288, ", ", E288)</f>
+        <f t="shared" si="4"/>
         <v>-82.373358, 29.63497</v>
       </c>
       <c r="Q288" s="1" t="s">
@@ -15039,7 +15039,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>436</v>
       </c>
       <c r="O289" s="1" t="str">
-        <f>_xlfn.CONCAT(D289, ", ", E289)</f>
+        <f t="shared" si="4"/>
         <v>-82.37293, 29.634975</v>
       </c>
       <c r="Q289" s="1" t="s">
@@ -15081,7 +15081,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -15113,7 +15113,7 @@
         <v>436</v>
       </c>
       <c r="O290" s="1" t="str">
-        <f>_xlfn.CONCAT(D290, ", ", E290)</f>
+        <f t="shared" si="4"/>
         <v>-82.37277, 29.633099</v>
       </c>
       <c r="Q290" s="1" t="s">
@@ -15123,7 +15123,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -15155,7 +15155,7 @@
         <v>436</v>
       </c>
       <c r="O291" s="1" t="str">
-        <f>_xlfn.CONCAT(D291, ", ", E291)</f>
+        <f t="shared" si="4"/>
         <v>-82.372751, 29.633286</v>
       </c>
       <c r="Q291" s="1" t="s">
@@ -15165,7 +15165,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -15197,7 +15197,7 @@
         <v>436</v>
       </c>
       <c r="O292" s="1" t="str">
-        <f>_xlfn.CONCAT(D292, ", ", E292)</f>
+        <f t="shared" si="4"/>
         <v>-82.373676, 29.633964</v>
       </c>
       <c r="Q292" s="1" t="s">
@@ -15207,7 +15207,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -15239,7 +15239,7 @@
         <v>436</v>
       </c>
       <c r="O293" s="1" t="str">
-        <f>_xlfn.CONCAT(D293, ", ", E293)</f>
+        <f t="shared" si="4"/>
         <v>-82.373734, 29.633964</v>
       </c>
       <c r="Q293" s="1" t="s">
@@ -15249,7 +15249,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>436</v>
       </c>
       <c r="O294" s="1" t="str">
-        <f>_xlfn.CONCAT(D294, ", ", E294)</f>
+        <f t="shared" si="4"/>
         <v>-82.332984, 29.650088</v>
       </c>
       <c r="Q294" s="1" t="s">
@@ -15291,7 +15291,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -15323,7 +15323,7 @@
         <v>436</v>
       </c>
       <c r="O295" s="1" t="str">
-        <f>_xlfn.CONCAT(D295, ", ", E295)</f>
+        <f t="shared" si="4"/>
         <v>-82.414103, 29.659939</v>
       </c>
       <c r="Q295" s="1" t="s">
@@ -15333,7 +15333,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -15365,7 +15365,7 @@
         <v>134</v>
       </c>
       <c r="O296" s="1" t="str">
-        <f>_xlfn.CONCAT(D296, ", ", E296)</f>
+        <f t="shared" si="4"/>
         <v>-84.573314, 30.556377</v>
       </c>
       <c r="Q296" s="1" t="s">
@@ -15375,7 +15375,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>32</v>
       </c>
       <c r="O297" s="1" t="str">
-        <f>_xlfn.CONCAT(D297, ", ", E297)</f>
+        <f t="shared" si="4"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="Q297" s="1" t="s">
@@ -15423,7 +15423,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -15461,7 +15461,7 @@
         <v>32</v>
       </c>
       <c r="O298" s="1" t="str">
-        <f>_xlfn.CONCAT(D298, ", ", E298)</f>
+        <f t="shared" si="4"/>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="Q298" s="1" t="s">
@@ -15471,7 +15471,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -15509,7 +15509,7 @@
         <v>32</v>
       </c>
       <c r="O299" s="1" t="str">
-        <f>_xlfn.CONCAT(D299, ", ", E299)</f>
+        <f t="shared" si="4"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="Q299" s="1" t="s">
@@ -15519,7 +15519,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -15557,7 +15557,7 @@
         <v>32</v>
       </c>
       <c r="O300" s="1" t="str">
-        <f>_xlfn.CONCAT(D300, ", ", E300)</f>
+        <f t="shared" si="4"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="Q300" s="1" t="s">
@@ -15567,7 +15567,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -15605,7 +15605,7 @@
         <v>32</v>
       </c>
       <c r="O301" s="1" t="str">
-        <f>_xlfn.CONCAT(D301, ", ", E301)</f>
+        <f t="shared" si="4"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="Q301" s="1" t="s">
@@ -15615,7 +15615,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>32</v>
       </c>
       <c r="O302" s="1" t="str">
-        <f>_xlfn.CONCAT(D302, ", ", E302)</f>
+        <f t="shared" si="4"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="Q302" s="1" t="s">
@@ -15657,7 +15657,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>32</v>
       </c>
       <c r="O303" s="1" t="str">
-        <f>_xlfn.CONCAT(D303, ", ", E303)</f>
+        <f t="shared" si="4"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="Q303" s="1" t="s">
@@ -15699,7 +15699,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -15715,12 +15715,6 @@
       <c r="E304" s="1">
         <v>30.445212000000001</v>
       </c>
-      <c r="F304" s="1">
-        <v>0</v>
-      </c>
-      <c r="G304" s="1">
-        <v>8</v>
-      </c>
       <c r="I304" s="1" t="s">
         <v>64</v>
       </c>
@@ -15737,7 +15731,7 @@
         <v>32</v>
       </c>
       <c r="O304" s="1" t="str">
-        <f>_xlfn.CONCAT(D304, ", ", E304)</f>
+        <f t="shared" si="4"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="Q304" s="1" t="s">
@@ -15747,7 +15741,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -15785,7 +15779,7 @@
         <v>32</v>
       </c>
       <c r="O305" s="1" t="str">
-        <f>_xlfn.CONCAT(D305, ", ", E305)</f>
+        <f t="shared" si="4"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="Q305" s="1" t="s">
@@ -15795,7 +15789,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -15827,7 +15821,7 @@
         <v>32</v>
       </c>
       <c r="O306" s="1" t="str">
-        <f>_xlfn.CONCAT(D306, ", ", E306)</f>
+        <f t="shared" si="4"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="Q306" s="1" t="s">
@@ -15837,7 +15831,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -15875,7 +15869,7 @@
         <v>32</v>
       </c>
       <c r="O307" s="1" t="str">
-        <f>_xlfn.CONCAT(D307, ", ", E307)</f>
+        <f t="shared" si="4"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="Q307" s="1" t="s">
@@ -15885,7 +15879,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -15917,7 +15911,7 @@
         <v>32</v>
       </c>
       <c r="O308" s="1" t="str">
-        <f>_xlfn.CONCAT(D308, ", ", E308)</f>
+        <f t="shared" si="4"/>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="Q308" s="1" t="s">
@@ -15927,7 +15921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -15959,7 +15953,7 @@
         <v>32</v>
       </c>
       <c r="O309" s="1" t="str">
-        <f>_xlfn.CONCAT(D309, ", ", E309)</f>
+        <f t="shared" si="4"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="Q309" s="1" t="s">
@@ -15969,7 +15963,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -16001,7 +15995,7 @@
         <v>32</v>
       </c>
       <c r="O310" s="1" t="str">
-        <f>_xlfn.CONCAT(D310, ", ", E310)</f>
+        <f t="shared" si="4"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="Q310" s="1" t="s">
@@ -16011,7 +16005,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -16043,7 +16037,7 @@
         <v>32</v>
       </c>
       <c r="O311" s="1" t="str">
-        <f>_xlfn.CONCAT(D311, ", ", E311)</f>
+        <f t="shared" si="4"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="Q311" s="1" t="s">
@@ -16053,7 +16047,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -16091,7 +16085,7 @@
         <v>32</v>
       </c>
       <c r="O312" s="1" t="str">
-        <f>_xlfn.CONCAT(D312, ", ", E312)</f>
+        <f t="shared" si="4"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="Q312" s="1" t="s">
@@ -16101,7 +16095,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -16117,6 +16111,12 @@
       <c r="E313" s="1">
         <v>30.444621999999999</v>
       </c>
+      <c r="F313" s="1">
+        <v>0</v>
+      </c>
+      <c r="G313" s="1">
+        <v>8</v>
+      </c>
       <c r="I313" s="1" t="s">
         <v>64</v>
       </c>
@@ -16133,7 +16133,7 @@
         <v>32</v>
       </c>
       <c r="O313" s="1" t="str">
-        <f>_xlfn.CONCAT(D313, ", ", E313)</f>
+        <f t="shared" si="4"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="Q313" s="1" t="s">
@@ -16143,7 +16143,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>32</v>
       </c>
       <c r="O314" s="1" t="str">
-        <f>_xlfn.CONCAT(D314, ", ", E314)</f>
+        <f t="shared" si="4"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="Q314" s="1" t="s">
@@ -16185,7 +16185,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>32</v>
       </c>
       <c r="O315" s="1" t="str">
-        <f>_xlfn.CONCAT(D315, ", ", E315)</f>
+        <f t="shared" si="4"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="Q315" s="1" t="s">
@@ -16227,7 +16227,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -16259,7 +16259,7 @@
         <v>32</v>
       </c>
       <c r="O316" s="1" t="str">
-        <f>_xlfn.CONCAT(D316, ", ", E316)</f>
+        <f t="shared" si="4"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="Q316" s="1" t="s">
@@ -16269,7 +16269,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -16307,7 +16307,7 @@
         <v>32</v>
       </c>
       <c r="O317" s="1" t="str">
-        <f>_xlfn.CONCAT(D317, ", ", E317)</f>
+        <f t="shared" si="4"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="Q317" s="1" t="s">
@@ -16317,7 +16317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -16349,7 +16349,7 @@
         <v>32</v>
       </c>
       <c r="O318" s="1" t="str">
-        <f>_xlfn.CONCAT(D318, ", ", E318)</f>
+        <f t="shared" si="4"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="Q318" s="1" t="s">
@@ -16359,7 +16359,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -16391,7 +16391,7 @@
         <v>32</v>
       </c>
       <c r="O319" s="1" t="str">
-        <f>_xlfn.CONCAT(D319, ", ", E319)</f>
+        <f t="shared" si="4"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="Q319" s="1" t="s">
@@ -16401,7 +16401,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -16433,7 +16433,7 @@
         <v>32</v>
       </c>
       <c r="O320" s="1" t="str">
-        <f>_xlfn.CONCAT(D320, ", ", E320)</f>
+        <f t="shared" si="4"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="Q320" s="1" t="s">
@@ -16443,7 +16443,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -16459,6 +16459,15 @@
       <c r="E321" s="1">
         <v>30.445186</v>
       </c>
+      <c r="F321" s="1">
+        <v>2</v>
+      </c>
+      <c r="G321" s="1">
+        <v>11</v>
+      </c>
+      <c r="H321">
+        <v>11.4842</v>
+      </c>
       <c r="I321" s="1" t="s">
         <v>64</v>
       </c>
@@ -16475,7 +16484,7 @@
         <v>32</v>
       </c>
       <c r="O321" s="1" t="str">
-        <f>_xlfn.CONCAT(D321, ", ", E321)</f>
+        <f t="shared" si="4"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="P321" s="1">
@@ -16488,7 +16497,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -16510,6 +16519,9 @@
       <c r="G322" s="1">
         <v>6</v>
       </c>
+      <c r="H322">
+        <v>15.561299999999999</v>
+      </c>
       <c r="I322" s="1" t="s">
         <v>64</v>
       </c>
@@ -16526,7 +16538,7 @@
         <v>32</v>
       </c>
       <c r="O322" s="1" t="str">
-        <f>_xlfn.CONCAT(D322, ", ", E322)</f>
+        <f t="shared" ref="O322:O385" si="5">_xlfn.CONCAT(D322, ", ", E322)</f>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="P322" s="1">
@@ -16539,7 +16551,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -16561,6 +16573,9 @@
       <c r="G323" s="1">
         <v>10</v>
       </c>
+      <c r="H323">
+        <v>13.314</v>
+      </c>
       <c r="I323" s="1" t="s">
         <v>64</v>
       </c>
@@ -16577,7 +16592,7 @@
         <v>32</v>
       </c>
       <c r="O323" s="1" t="str">
-        <f>_xlfn.CONCAT(D323, ", ", E323)</f>
+        <f t="shared" si="5"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="P323" s="1">
@@ -16590,7 +16605,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -16612,6 +16627,9 @@
       <c r="G324" s="1">
         <v>4</v>
       </c>
+      <c r="H324">
+        <v>15.9536</v>
+      </c>
       <c r="I324" s="1" t="s">
         <v>64</v>
       </c>
@@ -16628,7 +16646,7 @@
         <v>32</v>
       </c>
       <c r="O324" s="1" t="str">
-        <f>_xlfn.CONCAT(D324, ", ", E324)</f>
+        <f t="shared" si="5"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="P324" s="1">
@@ -16641,7 +16659,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -16663,6 +16681,9 @@
       <c r="G325" s="1">
         <v>9</v>
       </c>
+      <c r="H325">
+        <v>16.0504</v>
+      </c>
       <c r="I325" s="1" t="s">
         <v>64</v>
       </c>
@@ -16679,7 +16700,7 @@
         <v>32</v>
       </c>
       <c r="O325" s="1" t="str">
-        <f>_xlfn.CONCAT(D325, ", ", E325)</f>
+        <f t="shared" si="5"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="P325" s="1">
@@ -16692,7 +16713,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -16714,6 +16735,9 @@
       <c r="G326" s="1">
         <v>3</v>
       </c>
+      <c r="H326">
+        <v>11.4122</v>
+      </c>
       <c r="I326" s="1" t="s">
         <v>64</v>
       </c>
@@ -16730,7 +16754,7 @@
         <v>32</v>
       </c>
       <c r="O326" s="1" t="str">
-        <f>_xlfn.CONCAT(D326, ", ", E326)</f>
+        <f t="shared" si="5"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="P326" s="1">
@@ -16743,7 +16767,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -16765,6 +16789,9 @@
       <c r="G327" s="1">
         <v>2</v>
       </c>
+      <c r="H327">
+        <v>17.273499999999999</v>
+      </c>
       <c r="I327" s="1" t="s">
         <v>64</v>
       </c>
@@ -16781,7 +16808,7 @@
         <v>32</v>
       </c>
       <c r="O327" s="1" t="str">
-        <f>_xlfn.CONCAT(D327, ", ", E327)</f>
+        <f t="shared" si="5"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="P327" s="1">
@@ -16794,7 +16821,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -16816,6 +16843,9 @@
       <c r="G328" s="1">
         <v>1</v>
       </c>
+      <c r="H328">
+        <v>16.260999999999999</v>
+      </c>
       <c r="I328" s="1" t="s">
         <v>64</v>
       </c>
@@ -16832,7 +16862,7 @@
         <v>32</v>
       </c>
       <c r="O328" s="1" t="str">
-        <f>_xlfn.CONCAT(D328, ", ", E328)</f>
+        <f t="shared" si="5"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="P328" s="1">
@@ -16845,7 +16875,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -16867,6 +16897,9 @@
       <c r="G329" s="1">
         <v>4</v>
       </c>
+      <c r="H329">
+        <v>13.4529</v>
+      </c>
       <c r="I329" s="1" t="s">
         <v>64</v>
       </c>
@@ -16883,7 +16916,7 @@
         <v>32</v>
       </c>
       <c r="O329" s="1" t="str">
-        <f>_xlfn.CONCAT(D329, ", ", E329)</f>
+        <f t="shared" si="5"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="P329" s="1">
@@ -16896,7 +16929,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -16918,6 +16951,9 @@
       <c r="G330" s="1">
         <v>10</v>
       </c>
+      <c r="H330">
+        <v>12.597799999999999</v>
+      </c>
       <c r="I330" s="1" t="s">
         <v>64</v>
       </c>
@@ -16934,7 +16970,7 @@
         <v>32</v>
       </c>
       <c r="O330" s="1" t="str">
-        <f>_xlfn.CONCAT(D330, ", ", E330)</f>
+        <f t="shared" si="5"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="P330" s="1">
@@ -16947,7 +16983,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -16985,7 +17021,7 @@
         <v>32</v>
       </c>
       <c r="O331" s="1" t="str">
-        <f>_xlfn.CONCAT(D331, ", ", E331)</f>
+        <f t="shared" si="5"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="P331" s="1">
@@ -16998,7 +17034,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -17036,7 +17072,7 @@
         <v>32</v>
       </c>
       <c r="O332" s="1" t="str">
-        <f>_xlfn.CONCAT(D332, ", ", E332)</f>
+        <f t="shared" si="5"/>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="P332" s="1">
@@ -17049,7 +17085,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -17087,7 +17123,7 @@
         <v>32</v>
       </c>
       <c r="O333" s="1" t="str">
-        <f>_xlfn.CONCAT(D333, ", ", E333)</f>
+        <f t="shared" si="5"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="P333" s="1">
@@ -17100,7 +17136,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -17138,7 +17174,7 @@
         <v>32</v>
       </c>
       <c r="O334" s="1" t="str">
-        <f>_xlfn.CONCAT(D334, ", ", E334)</f>
+        <f t="shared" si="5"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="P334" s="1">
@@ -17151,7 +17187,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -17189,7 +17225,7 @@
         <v>32</v>
       </c>
       <c r="O335" s="1" t="str">
-        <f>_xlfn.CONCAT(D335, ", ", E335)</f>
+        <f t="shared" si="5"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="P335" s="1">
@@ -17202,7 +17238,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -17218,6 +17254,12 @@
       <c r="E336" s="1">
         <v>30.444621000000001</v>
       </c>
+      <c r="F336" s="1">
+        <v>1</v>
+      </c>
+      <c r="G336" s="1">
+        <v>1</v>
+      </c>
       <c r="I336" s="1" t="s">
         <v>64</v>
       </c>
@@ -17234,7 +17276,7 @@
         <v>32</v>
       </c>
       <c r="O336" s="1" t="str">
-        <f>_xlfn.CONCAT(D336, ", ", E336)</f>
+        <f t="shared" si="5"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="P336" s="1">
@@ -17247,7 +17289,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -17285,7 +17327,7 @@
         <v>32</v>
       </c>
       <c r="O337" s="1" t="str">
-        <f>_xlfn.CONCAT(D337, ", ", E337)</f>
+        <f t="shared" si="5"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="P337" s="1">
@@ -17298,7 +17340,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -17336,7 +17378,7 @@
         <v>32</v>
       </c>
       <c r="O338" s="1" t="str">
-        <f>_xlfn.CONCAT(D338, ", ", E338)</f>
+        <f t="shared" si="5"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="P338" s="1">
@@ -17349,7 +17391,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -17387,7 +17429,7 @@
         <v>32</v>
       </c>
       <c r="O339" s="1" t="str">
-        <f>_xlfn.CONCAT(D339, ", ", E339)</f>
+        <f t="shared" si="5"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="P339" s="1">
@@ -17400,7 +17442,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -17438,7 +17480,7 @@
         <v>32</v>
       </c>
       <c r="O340" s="1" t="str">
-        <f>_xlfn.CONCAT(D340, ", ", E340)</f>
+        <f t="shared" si="5"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="P340" s="1">
@@ -17451,7 +17493,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -17489,7 +17531,7 @@
         <v>32</v>
       </c>
       <c r="O341" s="1" t="str">
-        <f>_xlfn.CONCAT(D341, ", ", E341)</f>
+        <f t="shared" si="5"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="P341" s="1">
@@ -17502,7 +17544,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -17540,7 +17582,7 @@
         <v>32</v>
       </c>
       <c r="O342" s="1" t="str">
-        <f>_xlfn.CONCAT(D342, ", ", E342)</f>
+        <f t="shared" si="5"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="P342" s="1">
@@ -17553,7 +17595,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -17591,7 +17633,7 @@
         <v>32</v>
       </c>
       <c r="O343" s="1" t="str">
-        <f>_xlfn.CONCAT(D343, ", ", E343)</f>
+        <f t="shared" si="5"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="P343" s="1">
@@ -17604,7 +17646,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -17642,7 +17684,7 @@
         <v>32</v>
       </c>
       <c r="O344" s="1" t="str">
-        <f>_xlfn.CONCAT(D344, ", ", E344)</f>
+        <f t="shared" si="5"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="P344" s="1">
@@ -17655,7 +17697,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -17693,7 +17735,7 @@
         <v>32</v>
       </c>
       <c r="O345" s="1" t="str">
-        <f>_xlfn.CONCAT(D345, ", ", E345)</f>
+        <f t="shared" si="5"/>
         <v>-84.307414, 30.445009</v>
       </c>
       <c r="P345" s="1">
@@ -17706,7 +17748,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -17744,7 +17786,7 @@
         <v>32</v>
       </c>
       <c r="O346" s="1" t="str">
-        <f>_xlfn.CONCAT(D346, ", ", E346)</f>
+        <f t="shared" si="5"/>
         <v>-84.307377, 30.445029</v>
       </c>
       <c r="P346" s="1">
@@ -17757,7 +17799,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -17795,7 +17837,7 @@
         <v>32</v>
       </c>
       <c r="O347" s="1" t="str">
-        <f>_xlfn.CONCAT(D347, ", ", E347)</f>
+        <f t="shared" si="5"/>
         <v>-84.307376, 30.445036</v>
       </c>
       <c r="P347" s="1">
@@ -17808,7 +17850,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -17846,7 +17888,7 @@
         <v>32</v>
       </c>
       <c r="O348" s="1" t="str">
-        <f>_xlfn.CONCAT(D348, ", ", E348)</f>
+        <f t="shared" si="5"/>
         <v>-84.307387, 30.445075</v>
       </c>
       <c r="P348" s="1">
@@ -17859,7 +17901,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -17897,7 +17939,7 @@
         <v>32</v>
       </c>
       <c r="O349" s="1" t="str">
-        <f>_xlfn.CONCAT(D349, ", ", E349)</f>
+        <f t="shared" si="5"/>
         <v>-84.307369, 30.445082</v>
       </c>
       <c r="P349" s="1">
@@ -17910,7 +17952,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -17948,7 +17990,7 @@
         <v>32</v>
       </c>
       <c r="O350" s="1" t="str">
-        <f>_xlfn.CONCAT(D350, ", ", E350)</f>
+        <f t="shared" si="5"/>
         <v>-84.307349, 30.445216</v>
       </c>
       <c r="P350" s="1">
@@ -17961,7 +18003,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -17999,7 +18041,7 @@
         <v>32</v>
       </c>
       <c r="O351" s="1" t="str">
-        <f>_xlfn.CONCAT(D351, ", ", E351)</f>
+        <f t="shared" si="5"/>
         <v>-84.307275, 30.445139</v>
       </c>
       <c r="P351" s="1">
@@ -18012,7 +18054,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -18050,7 +18092,7 @@
         <v>32</v>
       </c>
       <c r="O352" s="1" t="str">
-        <f>_xlfn.CONCAT(D352, ", ", E352)</f>
+        <f t="shared" si="5"/>
         <v>-84.307155, 30.445187</v>
       </c>
       <c r="P352" s="1">
@@ -18063,7 +18105,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -18101,7 +18143,7 @@
         <v>32</v>
       </c>
       <c r="O353" s="1" t="str">
-        <f>_xlfn.CONCAT(D353, ", ", E353)</f>
+        <f t="shared" si="5"/>
         <v>-84.307104, 30.445185</v>
       </c>
       <c r="P353" s="1">
@@ -18114,7 +18156,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -18152,7 +18194,7 @@
         <v>32</v>
       </c>
       <c r="O354" s="1" t="str">
-        <f>_xlfn.CONCAT(D354, ", ", E354)</f>
+        <f t="shared" si="5"/>
         <v>-84.307079, 30.445178</v>
       </c>
       <c r="P354" s="1">
@@ -18165,7 +18207,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -18203,7 +18245,7 @@
         <v>32</v>
       </c>
       <c r="O355" s="1" t="str">
-        <f>_xlfn.CONCAT(D355, ", ", E355)</f>
+        <f t="shared" si="5"/>
         <v>-84.306925, 30.445037</v>
       </c>
       <c r="P355" s="1">
@@ -18216,7 +18258,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -18254,7 +18296,7 @@
         <v>32</v>
       </c>
       <c r="O356" s="1" t="str">
-        <f>_xlfn.CONCAT(D356, ", ", E356)</f>
+        <f t="shared" si="5"/>
         <v>-84.306833, 30.445029</v>
       </c>
       <c r="P356" s="1">
@@ -18267,7 +18309,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -18305,7 +18347,7 @@
         <v>32</v>
       </c>
       <c r="O357" s="1" t="str">
-        <f>_xlfn.CONCAT(D357, ", ", E357)</f>
+        <f t="shared" si="5"/>
         <v>-84.306949, 30.444942</v>
       </c>
       <c r="P357" s="1">
@@ -18318,7 +18360,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -18356,7 +18398,7 @@
         <v>32</v>
       </c>
       <c r="O358" s="1" t="str">
-        <f>_xlfn.CONCAT(D358, ", ", E358)</f>
+        <f t="shared" si="5"/>
         <v>-84.306966, 30.444909</v>
       </c>
       <c r="P358" s="1">
@@ -18369,7 +18411,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -18407,7 +18449,7 @@
         <v>32</v>
       </c>
       <c r="O359" s="1" t="str">
-        <f>_xlfn.CONCAT(D359, ", ", E359)</f>
+        <f t="shared" si="5"/>
         <v>-84.307105, 30.444845</v>
       </c>
       <c r="P359" s="1">
@@ -18420,7 +18462,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -18458,7 +18500,7 @@
         <v>32</v>
       </c>
       <c r="O360" s="1" t="str">
-        <f>_xlfn.CONCAT(D360, ", ", E360)</f>
+        <f t="shared" si="5"/>
         <v>-84.307311, 30.444681</v>
       </c>
       <c r="P360" s="1">
@@ -18471,7 +18513,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -18509,7 +18551,7 @@
         <v>32</v>
       </c>
       <c r="O361" s="1" t="str">
-        <f>_xlfn.CONCAT(D361, ", ", E361)</f>
+        <f t="shared" si="5"/>
         <v>-84.307292, 30.444688</v>
       </c>
       <c r="P361" s="1">
@@ -18522,7 +18564,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -18560,7 +18602,7 @@
         <v>32</v>
       </c>
       <c r="O362" s="1" t="str">
-        <f>_xlfn.CONCAT(D362, ", ", E362)</f>
+        <f t="shared" si="5"/>
         <v>-84.307287, 30.444686</v>
       </c>
       <c r="P362" s="1">
@@ -18573,7 +18615,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -18611,7 +18653,7 @@
         <v>32</v>
       </c>
       <c r="O363" s="1" t="str">
-        <f>_xlfn.CONCAT(D363, ", ", E363)</f>
+        <f t="shared" si="5"/>
         <v>-84.307279, 30.444679</v>
       </c>
       <c r="P363" s="1">
@@ -18624,7 +18666,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -18662,7 +18704,7 @@
         <v>32</v>
       </c>
       <c r="O364" s="1" t="str">
-        <f>_xlfn.CONCAT(D364, ", ", E364)</f>
+        <f t="shared" si="5"/>
         <v>-84.307277, 30.444669</v>
       </c>
       <c r="P364" s="1">
@@ -18675,7 +18717,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -18713,7 +18755,7 @@
         <v>32</v>
       </c>
       <c r="O365" s="1" t="str">
-        <f>_xlfn.CONCAT(D365, ", ", E365)</f>
+        <f t="shared" si="5"/>
         <v>-84.30736, 30.444657</v>
       </c>
       <c r="P365" s="1">
@@ -18726,7 +18768,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -18764,7 +18806,7 @@
         <v>32</v>
       </c>
       <c r="O366" s="1" t="str">
-        <f>_xlfn.CONCAT(D366, ", ", E366)</f>
+        <f t="shared" si="5"/>
         <v>-84.6307354, 30.444681</v>
       </c>
       <c r="P366" s="1">
@@ -18777,7 +18819,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -18815,7 +18857,7 @@
         <v>32</v>
       </c>
       <c r="O367" s="1" t="str">
-        <f>_xlfn.CONCAT(D367, ", ", E367)</f>
+        <f t="shared" si="5"/>
         <v>-84.307392, 30.444679</v>
       </c>
       <c r="P367" s="1">
@@ -18828,7 +18870,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -18866,7 +18908,7 @@
         <v>32</v>
       </c>
       <c r="O368" s="1" t="str">
-        <f>_xlfn.CONCAT(D368, ", ", E368)</f>
+        <f t="shared" si="5"/>
         <v>-84.307465, 30.444669</v>
       </c>
       <c r="P368" s="1">
@@ -18879,7 +18921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -18917,7 +18959,7 @@
         <v>32</v>
       </c>
       <c r="O369" s="1" t="str">
-        <f>_xlfn.CONCAT(D369, ", ", E369)</f>
+        <f t="shared" si="5"/>
         <v>-84.306925, 30.445037</v>
       </c>
       <c r="P369" s="1">
@@ -18930,7 +18972,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -18968,7 +19010,7 @@
         <v>32</v>
       </c>
       <c r="O370" s="1" t="str">
-        <f>_xlfn.CONCAT(D370, ", ", E370)</f>
+        <f t="shared" si="5"/>
         <v>-84.306833, 30.445029</v>
       </c>
       <c r="P370" s="1">
@@ -18981,7 +19023,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -19019,7 +19061,7 @@
         <v>32</v>
       </c>
       <c r="O371" s="1" t="str">
-        <f>_xlfn.CONCAT(D371, ", ", E371)</f>
+        <f t="shared" si="5"/>
         <v>-84.306949, 30.444942</v>
       </c>
       <c r="P371" s="1">
@@ -19032,7 +19074,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -19070,7 +19112,7 @@
         <v>32</v>
       </c>
       <c r="O372" s="1" t="str">
-        <f>_xlfn.CONCAT(D372, ", ", E372)</f>
+        <f t="shared" si="5"/>
         <v>-84.306966, 30.444909</v>
       </c>
       <c r="P372" s="1">
@@ -19083,7 +19125,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -19121,7 +19163,7 @@
         <v>439</v>
       </c>
       <c r="O373" s="1" t="str">
-        <f>_xlfn.CONCAT(D373, ", ", E373)</f>
+        <f t="shared" si="5"/>
         <v>-81.6596976, 30.3256932</v>
       </c>
       <c r="P373" s="1">
@@ -19134,7 +19176,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -19172,7 +19214,7 @@
         <v>439</v>
       </c>
       <c r="O374" s="1" t="str">
-        <f>_xlfn.CONCAT(D374, ", ", E374)</f>
+        <f t="shared" si="5"/>
         <v>-81.660408, 30.3254713</v>
       </c>
       <c r="P374" s="1">
@@ -19185,7 +19227,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -19223,7 +19265,7 @@
         <v>439</v>
       </c>
       <c r="O375" s="1" t="str">
-        <f>_xlfn.CONCAT(D375, ", ", E375)</f>
+        <f t="shared" si="5"/>
         <v>-81.67679, 30.387693</v>
       </c>
       <c r="P375" s="1">
@@ -19236,7 +19278,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -19274,7 +19316,7 @@
         <v>439</v>
       </c>
       <c r="O376" s="1" t="str">
-        <f>_xlfn.CONCAT(D376, ", ", E376)</f>
+        <f t="shared" si="5"/>
         <v>-81.71447, 30.438251</v>
       </c>
       <c r="P376" s="1">
@@ -19287,7 +19329,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -19325,7 +19367,7 @@
         <v>439</v>
       </c>
       <c r="O377" s="1" t="str">
-        <f>_xlfn.CONCAT(D377, ", ", E377)</f>
+        <f t="shared" si="5"/>
         <v>-81.699147, 30.427886</v>
       </c>
       <c r="P377" s="1">
@@ -19338,7 +19380,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -19376,7 +19418,7 @@
         <v>439</v>
       </c>
       <c r="O378" s="1" t="str">
-        <f>_xlfn.CONCAT(D378, ", ", E378)</f>
+        <f t="shared" si="5"/>
         <v>-81.699053, 30.427822</v>
       </c>
       <c r="P378" s="1">
@@ -19389,7 +19431,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -19427,7 +19469,7 @@
         <v>439</v>
       </c>
       <c r="O379" s="1" t="str">
-        <f>_xlfn.CONCAT(D379, ", ", E379)</f>
+        <f t="shared" si="5"/>
         <v>-81.697722, 30.427554</v>
       </c>
       <c r="P379" s="1">
@@ -19440,7 +19482,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -19478,7 +19520,7 @@
         <v>439</v>
       </c>
       <c r="O380" s="1" t="str">
-        <f>_xlfn.CONCAT(D380, ", ", E380)</f>
+        <f t="shared" si="5"/>
         <v>-81.697594, 30.427493</v>
       </c>
       <c r="P380" s="1">
@@ -19491,7 +19533,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -19529,7 +19571,7 @@
         <v>439</v>
       </c>
       <c r="O381" s="1" t="str">
-        <f>_xlfn.CONCAT(D381, ", ", E381)</f>
+        <f t="shared" si="5"/>
         <v>-81.974917, 30.302601</v>
       </c>
       <c r="P381" s="1">
@@ -19542,7 +19584,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -19580,7 +19622,7 @@
         <v>439</v>
       </c>
       <c r="O382" s="1" t="str">
-        <f>_xlfn.CONCAT(D382, ", ", E382)</f>
+        <f t="shared" si="5"/>
         <v>-81.974773, 30.302745</v>
       </c>
       <c r="P382" s="1">
@@ -19593,7 +19635,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -19631,7 +19673,7 @@
         <v>439</v>
       </c>
       <c r="O383" s="1" t="str">
-        <f>_xlfn.CONCAT(D383, ", ", E383)</f>
+        <f t="shared" si="5"/>
         <v>-81.975137, 30.302737</v>
       </c>
       <c r="P383" s="1">
@@ -19644,7 +19686,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -19682,7 +19724,7 @@
         <v>439</v>
       </c>
       <c r="O384" s="1" t="str">
-        <f>_xlfn.CONCAT(D384, ", ", E384)</f>
+        <f t="shared" si="5"/>
         <v>-81.969264, 30.302629</v>
       </c>
       <c r="P384" s="1">
@@ -19695,7 +19737,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -19733,7 +19775,7 @@
         <v>442</v>
       </c>
       <c r="O385" s="1" t="str">
-        <f>_xlfn.CONCAT(D385, ", ", E385)</f>
+        <f t="shared" si="5"/>
         <v>-86.110497, 30.720977</v>
       </c>
       <c r="P385" s="1">
@@ -19746,7 +19788,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -19784,7 +19826,7 @@
         <v>442</v>
       </c>
       <c r="O386" s="1" t="str">
-        <f>_xlfn.CONCAT(D386, ", ", E386)</f>
+        <f t="shared" ref="O386:O449" si="6">_xlfn.CONCAT(D386, ", ", E386)</f>
         <v>-86.120429, 30.722034</v>
       </c>
       <c r="P386" s="1">
@@ -19797,7 +19839,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -19835,7 +19877,7 @@
         <v>442</v>
       </c>
       <c r="O387" s="1" t="str">
-        <f>_xlfn.CONCAT(D387, ", ", E387)</f>
+        <f t="shared" si="6"/>
         <v>-86.120555, 30.722011</v>
       </c>
       <c r="P387" s="1">
@@ -19848,7 +19890,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -19886,7 +19928,7 @@
         <v>442</v>
       </c>
       <c r="O388" s="1" t="str">
-        <f>_xlfn.CONCAT(D388, ", ", E388)</f>
+        <f t="shared" si="6"/>
         <v>-86.12824, 30.725328</v>
       </c>
       <c r="P388" s="1">
@@ -19899,7 +19941,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -19937,7 +19979,7 @@
         <v>442</v>
       </c>
       <c r="O389" s="1" t="str">
-        <f>_xlfn.CONCAT(D389, ", ", E389)</f>
+        <f t="shared" si="6"/>
         <v>-86.134768, 30.72845</v>
       </c>
       <c r="P389" s="1">
@@ -19950,7 +19992,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -19988,7 +20030,7 @@
         <v>442</v>
       </c>
       <c r="O390" s="1" t="str">
-        <f>_xlfn.CONCAT(D390, ", ", E390)</f>
+        <f t="shared" si="6"/>
         <v>-86.148598, 30.738057</v>
       </c>
       <c r="P390" s="1">
@@ -20001,7 +20043,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -20039,7 +20081,7 @@
         <v>32</v>
       </c>
       <c r="O391" s="1" t="str">
-        <f>_xlfn.CONCAT(D391, ", ", E391)</f>
+        <f t="shared" si="6"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="P391" s="1">
@@ -20052,7 +20094,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -20090,7 +20132,7 @@
         <v>32</v>
       </c>
       <c r="O392" s="1" t="str">
-        <f>_xlfn.CONCAT(D392, ", ", E392)</f>
+        <f t="shared" si="6"/>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="P392" s="1">
@@ -20103,7 +20145,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -20141,7 +20183,7 @@
         <v>32</v>
       </c>
       <c r="O393" s="1" t="str">
-        <f>_xlfn.CONCAT(D393, ", ", E393)</f>
+        <f t="shared" si="6"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="P393" s="1">
@@ -20154,7 +20196,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -20192,7 +20234,7 @@
         <v>32</v>
       </c>
       <c r="O394" s="1" t="str">
-        <f>_xlfn.CONCAT(D394, ", ", E394)</f>
+        <f t="shared" si="6"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="P394" s="1">
@@ -20205,7 +20247,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -20243,7 +20285,7 @@
         <v>32</v>
       </c>
       <c r="O395" s="1" t="str">
-        <f>_xlfn.CONCAT(D395, ", ", E395)</f>
+        <f t="shared" si="6"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="P395" s="1">
@@ -20256,7 +20298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -20294,7 +20336,7 @@
         <v>32</v>
       </c>
       <c r="O396" s="1" t="str">
-        <f>_xlfn.CONCAT(D396, ", ", E396)</f>
+        <f t="shared" si="6"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="P396" s="1">
@@ -20307,7 +20349,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -20345,7 +20387,7 @@
         <v>32</v>
       </c>
       <c r="O397" s="1" t="str">
-        <f>_xlfn.CONCAT(D397, ", ", E397)</f>
+        <f t="shared" si="6"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="P397" s="1">
@@ -20358,7 +20400,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -20396,7 +20438,7 @@
         <v>32</v>
       </c>
       <c r="O398" s="1" t="str">
-        <f>_xlfn.CONCAT(D398, ", ", E398)</f>
+        <f t="shared" si="6"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="P398" s="1">
@@ -20409,7 +20451,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -20447,7 +20489,7 @@
         <v>32</v>
       </c>
       <c r="O399" s="1" t="str">
-        <f>_xlfn.CONCAT(D399, ", ", E399)</f>
+        <f t="shared" si="6"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="P399" s="1">
@@ -20460,7 +20502,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="400" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -20498,7 +20540,7 @@
         <v>32</v>
       </c>
       <c r="O400" s="1" t="str">
-        <f>_xlfn.CONCAT(D400, ", ", E400)</f>
+        <f t="shared" si="6"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="P400" s="1">
@@ -20511,7 +20553,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="401" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -20549,7 +20591,7 @@
         <v>32</v>
       </c>
       <c r="O401" s="1" t="str">
-        <f>_xlfn.CONCAT(D401, ", ", E401)</f>
+        <f t="shared" si="6"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="P401" s="1">
@@ -20562,7 +20604,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="402" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -20600,7 +20642,7 @@
         <v>32</v>
       </c>
       <c r="O402" s="1" t="str">
-        <f>_xlfn.CONCAT(D402, ", ", E402)</f>
+        <f t="shared" si="6"/>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="P402" s="1">
@@ -20613,7 +20655,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="403" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -20651,7 +20693,7 @@
         <v>32</v>
       </c>
       <c r="O403" s="1" t="str">
-        <f>_xlfn.CONCAT(D403, ", ", E403)</f>
+        <f t="shared" si="6"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="P403" s="1">
@@ -20664,7 +20706,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="404" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -20702,7 +20744,7 @@
         <v>32</v>
       </c>
       <c r="O404" s="1" t="str">
-        <f>_xlfn.CONCAT(D404, ", ", E404)</f>
+        <f t="shared" si="6"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="P404" s="1">
@@ -20715,7 +20757,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="405" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -20753,7 +20795,7 @@
         <v>32</v>
       </c>
       <c r="O405" s="1" t="str">
-        <f>_xlfn.CONCAT(D405, ", ", E405)</f>
+        <f t="shared" si="6"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="P405" s="1">
@@ -20766,7 +20808,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="406" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -20804,7 +20846,7 @@
         <v>32</v>
       </c>
       <c r="O406" s="1" t="str">
-        <f>_xlfn.CONCAT(D406, ", ", E406)</f>
+        <f t="shared" si="6"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="P406" s="1">
@@ -20817,7 +20859,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="407" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -20855,7 +20897,7 @@
         <v>32</v>
       </c>
       <c r="O407" s="1" t="str">
-        <f>_xlfn.CONCAT(D407, ", ", E407)</f>
+        <f t="shared" si="6"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="P407" s="1">
@@ -20868,7 +20910,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="408" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -20906,7 +20948,7 @@
         <v>32</v>
       </c>
       <c r="O408" s="1" t="str">
-        <f>_xlfn.CONCAT(D408, ", ", E408)</f>
+        <f t="shared" si="6"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="P408" s="1">
@@ -20919,7 +20961,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="409" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -20957,7 +20999,7 @@
         <v>32</v>
       </c>
       <c r="O409" s="1" t="str">
-        <f>_xlfn.CONCAT(D409, ", ", E409)</f>
+        <f t="shared" si="6"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="P409" s="1">
@@ -20970,7 +21012,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="410" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -21008,7 +21050,7 @@
         <v>32</v>
       </c>
       <c r="O410" s="1" t="str">
-        <f>_xlfn.CONCAT(D410, ", ", E410)</f>
+        <f t="shared" si="6"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="P410" s="1">
@@ -21021,7 +21063,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="411" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -21059,7 +21101,7 @@
         <v>32</v>
       </c>
       <c r="O411" s="1" t="str">
-        <f>_xlfn.CONCAT(D411, ", ", E411)</f>
+        <f t="shared" si="6"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="P411" s="1">
@@ -21072,7 +21114,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="412" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -21110,7 +21152,7 @@
         <v>32</v>
       </c>
       <c r="O412" s="1" t="str">
-        <f>_xlfn.CONCAT(D412, ", ", E412)</f>
+        <f t="shared" si="6"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="P412" s="1">
@@ -21123,7 +21165,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="413" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -21161,7 +21203,7 @@
         <v>32</v>
       </c>
       <c r="O413" s="1" t="str">
-        <f>_xlfn.CONCAT(D413, ", ", E413)</f>
+        <f t="shared" si="6"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="P413" s="1">
@@ -21174,7 +21216,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="414" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -21212,7 +21254,7 @@
         <v>32</v>
       </c>
       <c r="O414" s="1" t="str">
-        <f>_xlfn.CONCAT(D414, ", ", E414)</f>
+        <f t="shared" si="6"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="P414" s="1">
@@ -21225,7 +21267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="415" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -21263,7 +21305,7 @@
         <v>32</v>
       </c>
       <c r="O415" s="1" t="str">
-        <f>_xlfn.CONCAT(D415, ", ", E415)</f>
+        <f t="shared" si="6"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="P415" s="1">
@@ -21276,7 +21318,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="416" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -21314,7 +21356,7 @@
         <v>32</v>
       </c>
       <c r="O416" s="1" t="str">
-        <f>_xlfn.CONCAT(D416, ", ", E416)</f>
+        <f t="shared" si="6"/>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="P416" s="1">
@@ -21327,7 +21369,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="417" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -21365,7 +21407,7 @@
         <v>32</v>
       </c>
       <c r="O417" s="1" t="str">
-        <f>_xlfn.CONCAT(D417, ", ", E417)</f>
+        <f t="shared" si="6"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="P417" s="1">
@@ -21378,7 +21420,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="418" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -21416,7 +21458,7 @@
         <v>32</v>
       </c>
       <c r="O418" s="1" t="str">
-        <f>_xlfn.CONCAT(D418, ", ", E418)</f>
+        <f t="shared" si="6"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="P418" s="1">
@@ -21429,7 +21471,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="419" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -21467,7 +21509,7 @@
         <v>32</v>
       </c>
       <c r="O419" s="1" t="str">
-        <f>_xlfn.CONCAT(D419, ", ", E419)</f>
+        <f t="shared" si="6"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="P419" s="1">
@@ -21480,7 +21522,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="420" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -21518,7 +21560,7 @@
         <v>32</v>
       </c>
       <c r="O420" s="1" t="str">
-        <f>_xlfn.CONCAT(D420, ", ", E420)</f>
+        <f t="shared" si="6"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="P420" s="1">
@@ -21531,7 +21573,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="421" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -21569,7 +21611,7 @@
         <v>32</v>
       </c>
       <c r="O421" s="1" t="str">
-        <f>_xlfn.CONCAT(D421, ", ", E421)</f>
+        <f t="shared" si="6"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="P421" s="1">
@@ -21582,7 +21624,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="422" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -21620,7 +21662,7 @@
         <v>32</v>
       </c>
       <c r="O422" s="1" t="str">
-        <f>_xlfn.CONCAT(D422, ", ", E422)</f>
+        <f t="shared" si="6"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="P422" s="1">
@@ -21633,7 +21675,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -21671,7 +21713,7 @@
         <v>32</v>
       </c>
       <c r="O423" s="1" t="str">
-        <f>_xlfn.CONCAT(D423, ", ", E423)</f>
+        <f t="shared" si="6"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="P423" s="1">
@@ -21684,7 +21726,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="424" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -21722,7 +21764,7 @@
         <v>32</v>
       </c>
       <c r="O424" s="1" t="str">
-        <f>_xlfn.CONCAT(D424, ", ", E424)</f>
+        <f t="shared" si="6"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="P424" s="1">
@@ -21735,7 +21777,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="425" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -21773,7 +21815,7 @@
         <v>32</v>
       </c>
       <c r="O425" s="1" t="str">
-        <f>_xlfn.CONCAT(D425, ", ", E425)</f>
+        <f t="shared" si="6"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="P425" s="1">
@@ -21786,7 +21828,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="426" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -21824,7 +21866,7 @@
         <v>32</v>
       </c>
       <c r="O426" s="1" t="str">
-        <f>_xlfn.CONCAT(D426, ", ", E426)</f>
+        <f t="shared" si="6"/>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="P426" s="1">
@@ -21837,7 +21879,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="427" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -21875,7 +21917,7 @@
         <v>32</v>
       </c>
       <c r="O427" s="1" t="str">
-        <f>_xlfn.CONCAT(D427, ", ", E427)</f>
+        <f t="shared" si="6"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="P427" s="1">
@@ -21888,7 +21930,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="428" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -21926,7 +21968,7 @@
         <v>32</v>
       </c>
       <c r="O428" s="1" t="str">
-        <f>_xlfn.CONCAT(D428, ", ", E428)</f>
+        <f t="shared" si="6"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="P428" s="1">
@@ -21939,7 +21981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="429" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -21977,7 +22019,7 @@
         <v>32</v>
       </c>
       <c r="O429" s="1" t="str">
-        <f>_xlfn.CONCAT(D429, ", ", E429)</f>
+        <f t="shared" si="6"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="P429" s="1">
@@ -21990,7 +22032,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="430" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -22028,7 +22070,7 @@
         <v>32</v>
       </c>
       <c r="O430" s="1" t="str">
-        <f>_xlfn.CONCAT(D430, ", ", E430)</f>
+        <f t="shared" si="6"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="P430" s="1">
@@ -22041,7 +22083,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="431" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -22079,7 +22121,7 @@
         <v>32</v>
       </c>
       <c r="O431" s="1" t="str">
-        <f>_xlfn.CONCAT(D431, ", ", E431)</f>
+        <f t="shared" si="6"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="P431" s="1">
@@ -22092,7 +22134,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="432" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -22130,7 +22172,7 @@
         <v>32</v>
       </c>
       <c r="O432" s="1" t="str">
-        <f>_xlfn.CONCAT(D432, ", ", E432)</f>
+        <f t="shared" si="6"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="P432" s="1">
@@ -22143,7 +22185,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="433" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -22181,7 +22223,7 @@
         <v>32</v>
       </c>
       <c r="O433" s="1" t="str">
-        <f>_xlfn.CONCAT(D433, ", ", E433)</f>
+        <f t="shared" si="6"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="P433" s="1">
@@ -22194,7 +22236,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="434" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -22232,7 +22274,7 @@
         <v>32</v>
       </c>
       <c r="O434" s="1" t="str">
-        <f>_xlfn.CONCAT(D434, ", ", E434)</f>
+        <f t="shared" si="6"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="P434" s="1">
@@ -22245,7 +22287,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="435" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -22283,7 +22325,7 @@
         <v>32</v>
       </c>
       <c r="O435" s="1" t="str">
-        <f>_xlfn.CONCAT(D435, ", ", E435)</f>
+        <f t="shared" si="6"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="P435" s="1">
@@ -22296,7 +22338,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="436" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -22334,7 +22376,7 @@
         <v>32</v>
       </c>
       <c r="O436" s="1" t="str">
-        <f>_xlfn.CONCAT(D436, ", ", E436)</f>
+        <f t="shared" si="6"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="P436" s="1">
@@ -22347,7 +22389,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="437" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -22385,7 +22427,7 @@
         <v>32</v>
       </c>
       <c r="O437" s="1" t="str">
-        <f>_xlfn.CONCAT(D437, ", ", E437)</f>
+        <f t="shared" si="6"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="P437" s="1">
@@ -22398,7 +22440,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="438" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -22436,7 +22478,7 @@
         <v>32</v>
       </c>
       <c r="O438" s="1" t="str">
-        <f>_xlfn.CONCAT(D438, ", ", E438)</f>
+        <f t="shared" si="6"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="P438" s="1">
@@ -22449,7 +22491,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="439" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -22487,7 +22529,7 @@
         <v>32</v>
       </c>
       <c r="O439" s="1" t="str">
-        <f>_xlfn.CONCAT(D439, ", ", E439)</f>
+        <f t="shared" si="6"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="P439" s="1">
@@ -22500,7 +22542,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="440" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -22538,7 +22580,7 @@
         <v>32</v>
       </c>
       <c r="O440" s="1" t="str">
-        <f>_xlfn.CONCAT(D440, ", ", E440)</f>
+        <f t="shared" si="6"/>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="P440" s="1">
@@ -22551,7 +22593,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="441" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -22589,7 +22631,7 @@
         <v>32</v>
       </c>
       <c r="O441" s="1" t="str">
-        <f>_xlfn.CONCAT(D441, ", ", E441)</f>
+        <f t="shared" si="6"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="P441" s="1">
@@ -22602,7 +22644,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="442" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -22640,7 +22682,7 @@
         <v>32</v>
       </c>
       <c r="O442" s="1" t="str">
-        <f>_xlfn.CONCAT(D442, ", ", E442)</f>
+        <f t="shared" si="6"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="P442" s="1">
@@ -22653,7 +22695,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="443" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -22691,7 +22733,7 @@
         <v>32</v>
       </c>
       <c r="O443" s="1" t="str">
-        <f>_xlfn.CONCAT(D443, ", ", E443)</f>
+        <f t="shared" si="6"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="P443" s="1">
@@ -22704,7 +22746,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="444" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -22742,7 +22784,7 @@
         <v>32</v>
       </c>
       <c r="O444" s="1" t="str">
-        <f>_xlfn.CONCAT(D444, ", ", E444)</f>
+        <f t="shared" si="6"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="P444" s="1">
@@ -22755,7 +22797,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="445" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -22793,7 +22835,7 @@
         <v>32</v>
       </c>
       <c r="O445" s="1" t="str">
-        <f>_xlfn.CONCAT(D445, ", ", E445)</f>
+        <f t="shared" si="6"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="P445" s="1">
@@ -22806,7 +22848,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="446" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -22844,7 +22886,7 @@
         <v>32</v>
       </c>
       <c r="O446" s="1" t="str">
-        <f>_xlfn.CONCAT(D446, ", ", E446)</f>
+        <f t="shared" si="6"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="P446" s="1">
@@ -22857,7 +22899,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="447" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -22895,7 +22937,7 @@
         <v>32</v>
       </c>
       <c r="O447" s="1" t="str">
-        <f>_xlfn.CONCAT(D447, ", ", E447)</f>
+        <f t="shared" si="6"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="P447" s="1">
@@ -22908,7 +22950,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="448" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -22946,7 +22988,7 @@
         <v>32</v>
       </c>
       <c r="O448" s="1" t="str">
-        <f>_xlfn.CONCAT(D448, ", ", E448)</f>
+        <f t="shared" si="6"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="P448" s="1">
@@ -22959,7 +23001,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="449" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -22997,7 +23039,7 @@
         <v>32</v>
       </c>
       <c r="O449" s="1" t="str">
-        <f>_xlfn.CONCAT(D449, ", ", E449)</f>
+        <f t="shared" si="6"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="P449" s="1">
@@ -23010,7 +23052,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="450" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -23048,7 +23090,7 @@
         <v>32</v>
       </c>
       <c r="O450" s="1" t="str">
-        <f>_xlfn.CONCAT(D450, ", ", E450)</f>
+        <f t="shared" ref="O450:O486" si="7">_xlfn.CONCAT(D450, ", ", E450)</f>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="P450" s="1">
@@ -23061,7 +23103,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="451" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -23099,7 +23141,7 @@
         <v>32</v>
       </c>
       <c r="O451" s="1" t="str">
-        <f>_xlfn.CONCAT(D451, ", ", E451)</f>
+        <f t="shared" si="7"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="P451" s="1">
@@ -23112,7 +23154,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="452" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -23150,7 +23192,7 @@
         <v>32</v>
       </c>
       <c r="O452" s="1" t="str">
-        <f>_xlfn.CONCAT(D452, ", ", E452)</f>
+        <f t="shared" si="7"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="P452" s="1">
@@ -23163,7 +23205,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="453" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -23201,7 +23243,7 @@
         <v>32</v>
       </c>
       <c r="O453" s="1" t="str">
-        <f>_xlfn.CONCAT(D453, ", ", E453)</f>
+        <f t="shared" si="7"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="P453" s="1">
@@ -23214,7 +23256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="454" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -23252,7 +23294,7 @@
         <v>32</v>
       </c>
       <c r="O454" s="1" t="str">
-        <f>_xlfn.CONCAT(D454, ", ", E454)</f>
+        <f t="shared" si="7"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="P454" s="1">
@@ -23265,7 +23307,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="455" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -23303,7 +23345,7 @@
         <v>32</v>
       </c>
       <c r="O455" s="1" t="str">
-        <f>_xlfn.CONCAT(D455, ", ", E455)</f>
+        <f t="shared" si="7"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="P455" s="1">
@@ -23316,7 +23358,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="456" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -23354,7 +23396,7 @@
         <v>32</v>
       </c>
       <c r="O456" s="1" t="str">
-        <f>_xlfn.CONCAT(D456, ", ", E456)</f>
+        <f t="shared" si="7"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="P456" s="1">
@@ -23367,7 +23409,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="457" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -23405,7 +23447,7 @@
         <v>32</v>
       </c>
       <c r="O457" s="1" t="str">
-        <f>_xlfn.CONCAT(D457, ", ", E457)</f>
+        <f t="shared" si="7"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="P457" s="1">
@@ -23418,7 +23460,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="458" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -23456,7 +23498,7 @@
         <v>32</v>
       </c>
       <c r="O458" s="1" t="str">
-        <f>_xlfn.CONCAT(D458, ", ", E458)</f>
+        <f t="shared" si="7"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="P458" s="1">
@@ -23469,7 +23511,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="459" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -23507,7 +23549,7 @@
         <v>32</v>
       </c>
       <c r="O459" s="1" t="str">
-        <f>_xlfn.CONCAT(D459, ", ", E459)</f>
+        <f t="shared" si="7"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="P459" s="1">
@@ -23520,7 +23562,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="460" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -23558,7 +23600,7 @@
         <v>32</v>
       </c>
       <c r="O460" s="1" t="str">
-        <f>_xlfn.CONCAT(D460, ", ", E460)</f>
+        <f t="shared" si="7"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="P460" s="1">
@@ -23571,7 +23613,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="461" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -23609,7 +23651,7 @@
         <v>32</v>
       </c>
       <c r="O461" s="1" t="str">
-        <f>_xlfn.CONCAT(D461, ", ", E461)</f>
+        <f t="shared" si="7"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="P461" s="1">
@@ -23622,7 +23664,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="462" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -23660,7 +23702,7 @@
         <v>32</v>
       </c>
       <c r="O462" s="1" t="str">
-        <f>_xlfn.CONCAT(D462, ", ", E462)</f>
+        <f t="shared" si="7"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="P462" s="1">
@@ -23673,7 +23715,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="463" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -23711,7 +23753,7 @@
         <v>32</v>
       </c>
       <c r="O463" s="1" t="str">
-        <f>_xlfn.CONCAT(D463, ", ", E463)</f>
+        <f t="shared" si="7"/>
         <v>-84.307531, 30.445186</v>
       </c>
       <c r="P463" s="1">
@@ -23724,7 +23766,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="464" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -23762,7 +23804,7 @@
         <v>32</v>
       </c>
       <c r="O464" s="1" t="str">
-        <f>_xlfn.CONCAT(D464, ", ", E464)</f>
+        <f t="shared" si="7"/>
         <v>-84.307332, 30.445218</v>
       </c>
       <c r="P464" s="1">
@@ -23775,7 +23817,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="465" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -23813,7 +23855,7 @@
         <v>32</v>
       </c>
       <c r="O465" s="1" t="str">
-        <f>_xlfn.CONCAT(D465, ", ", E465)</f>
+        <f t="shared" si="7"/>
         <v>-84.307343, 30.445109</v>
       </c>
       <c r="P465" s="1">
@@ -23826,7 +23868,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="466" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -23864,7 +23906,7 @@
         <v>32</v>
       </c>
       <c r="O466" s="1" t="str">
-        <f>_xlfn.CONCAT(D466, ", ", E466)</f>
+        <f t="shared" si="7"/>
         <v>-84.307353, 30.445112</v>
       </c>
       <c r="P466" s="1">
@@ -23877,7 +23919,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="467" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -23915,7 +23957,7 @@
         <v>32</v>
       </c>
       <c r="O467" s="1" t="str">
-        <f>_xlfn.CONCAT(D467, ", ", E467)</f>
+        <f t="shared" si="7"/>
         <v>-84.307346, 30.445121</v>
       </c>
       <c r="P467" s="1">
@@ -23928,7 +23970,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="468" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -23966,7 +24008,7 @@
         <v>32</v>
       </c>
       <c r="O468" s="1" t="str">
-        <f>_xlfn.CONCAT(D468, ", ", E468)</f>
+        <f t="shared" si="7"/>
         <v>-84.30733, 30.445135</v>
       </c>
       <c r="P468" s="1">
@@ -23979,7 +24021,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="469" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -24017,7 +24059,7 @@
         <v>32</v>
       </c>
       <c r="O469" s="1" t="str">
-        <f>_xlfn.CONCAT(D469, ", ", E469)</f>
+        <f t="shared" si="7"/>
         <v>-84.307315, 30.445172</v>
       </c>
       <c r="P469" s="1">
@@ -24030,7 +24072,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="470" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -24068,7 +24110,7 @@
         <v>32</v>
       </c>
       <c r="O470" s="1" t="str">
-        <f>_xlfn.CONCAT(D470, ", ", E470)</f>
+        <f t="shared" si="7"/>
         <v>-84.307334, 30.445212</v>
       </c>
       <c r="P470" s="1">
@@ -24081,7 +24123,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="471" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -24119,7 +24161,7 @@
         <v>32</v>
       </c>
       <c r="O471" s="1" t="str">
-        <f>_xlfn.CONCAT(D471, ", ", E471)</f>
+        <f t="shared" si="7"/>
         <v>-84.307321, 30.445215</v>
       </c>
       <c r="P471" s="1">
@@ -24132,7 +24174,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="472" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -24170,7 +24212,7 @@
         <v>32</v>
       </c>
       <c r="O472" s="1" t="str">
-        <f>_xlfn.CONCAT(D472, ", ", E472)</f>
+        <f t="shared" si="7"/>
         <v>-84.307312, 30.445219</v>
       </c>
       <c r="P472" s="1">
@@ -24183,7 +24225,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="473" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -24221,7 +24263,7 @@
         <v>32</v>
       </c>
       <c r="O473" s="1" t="str">
-        <f>_xlfn.CONCAT(D473, ", ", E473)</f>
+        <f t="shared" si="7"/>
         <v>-84.307025, 30.444988</v>
       </c>
       <c r="P473" s="1">
@@ -24234,7 +24276,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="474" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -24272,7 +24314,7 @@
         <v>32</v>
       </c>
       <c r="O474" s="1" t="str">
-        <f>_xlfn.CONCAT(D474, ", ", E474)</f>
+        <f t="shared" si="7"/>
         <v>-84.307019, 30.444991</v>
       </c>
       <c r="P474" s="1">
@@ -24285,7 +24327,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="475" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -24323,7 +24365,7 @@
         <v>32</v>
       </c>
       <c r="O475" s="1" t="str">
-        <f>_xlfn.CONCAT(D475, ", ", E475)</f>
+        <f t="shared" si="7"/>
         <v>-84.307001, 30.444985</v>
       </c>
       <c r="P475" s="1">
@@ -24336,7 +24378,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="476" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -24374,7 +24416,7 @@
         <v>32</v>
       </c>
       <c r="O476" s="1" t="str">
-        <f>_xlfn.CONCAT(D476, ", ", E476)</f>
+        <f t="shared" si="7"/>
         <v>-84.306981, 30.444969</v>
       </c>
       <c r="P476" s="1">
@@ -24387,7 +24429,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="477" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -24425,7 +24467,7 @@
         <v>32</v>
       </c>
       <c r="O477" s="1" t="str">
-        <f>_xlfn.CONCAT(D477, ", ", E477)</f>
+        <f t="shared" si="7"/>
         <v>-84.307329, 30.444631</v>
       </c>
       <c r="P477" s="1">
@@ -24438,7 +24480,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="478" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -24476,7 +24518,7 @@
         <v>32</v>
       </c>
       <c r="O478" s="1" t="str">
-        <f>_xlfn.CONCAT(D478, ", ", E478)</f>
+        <f t="shared" si="7"/>
         <v>-84.307353, 30.444621</v>
       </c>
       <c r="P478" s="1">
@@ -24489,7 +24531,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="479" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -24527,7 +24569,7 @@
         <v>32</v>
       </c>
       <c r="O479" s="1" t="str">
-        <f>_xlfn.CONCAT(D479, ", ", E479)</f>
+        <f t="shared" si="7"/>
         <v>-84.307361, 30.444622</v>
       </c>
       <c r="P479" s="1">
@@ -24540,7 +24582,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="480" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -24578,7 +24620,7 @@
         <v>32</v>
       </c>
       <c r="O480" s="1" t="str">
-        <f>_xlfn.CONCAT(D480, ", ", E480)</f>
+        <f t="shared" si="7"/>
         <v>-84.307366, 30.44462</v>
       </c>
       <c r="P480" s="1">
@@ -24591,7 +24633,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="481" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -24629,7 +24671,7 @@
         <v>32</v>
       </c>
       <c r="O481" s="1" t="str">
-        <f>_xlfn.CONCAT(D481, ", ", E481)</f>
+        <f t="shared" si="7"/>
         <v>-84.307372, 30.444618</v>
       </c>
       <c r="P481" s="1">
@@ -24642,7 +24684,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="482" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -24680,7 +24722,7 @@
         <v>32</v>
       </c>
       <c r="O482" s="1" t="str">
-        <f>_xlfn.CONCAT(D482, ", ", E482)</f>
+        <f t="shared" si="7"/>
         <v>-84.307384, 30.444616</v>
       </c>
       <c r="P482" s="1">
@@ -24693,7 +24735,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="483" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -24731,7 +24773,7 @@
         <v>32</v>
       </c>
       <c r="O483" s="1" t="str">
-        <f>_xlfn.CONCAT(D483, ", ", E483)</f>
+        <f t="shared" si="7"/>
         <v>-84.307404, 30.444615</v>
       </c>
       <c r="P483" s="1">
@@ -24744,7 +24786,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="484" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -24782,7 +24824,7 @@
         <v>32</v>
       </c>
       <c r="O484" s="1" t="str">
-        <f>_xlfn.CONCAT(D484, ", ", E484)</f>
+        <f t="shared" si="7"/>
         <v>-84.30741, 30.444606</v>
       </c>
       <c r="P484" s="1">
@@ -24795,7 +24837,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="485" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -24833,7 +24875,7 @@
         <v>32</v>
       </c>
       <c r="O485" s="1" t="str">
-        <f>_xlfn.CONCAT(D485, ", ", E485)</f>
+        <f t="shared" si="7"/>
         <v>-84.307417, 30.444603</v>
       </c>
       <c r="P485" s="1">
@@ -24846,7 +24888,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="486" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -24884,7 +24926,7 @@
         <v>32</v>
       </c>
       <c r="O486" s="1" t="str">
-        <f>_xlfn.CONCAT(D486, ", ", E486)</f>
+        <f t="shared" si="7"/>
         <v>-84.30743, 30.444598</v>
       </c>
       <c r="P486" s="1">
@@ -24909,21 +24951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C0E11230C08DC49833B3F1477B86E12" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb53d2c6653065b890b670dc29c6781e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dd0bfe55-5c12-4789-98d0-82523c6ebf2f" xmlns:ns4="44d8a1d7-dcd5-4999-ba4e-d25980efe38f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4122b5d1f38cc72ffe6e83d1f4950dbc" ns3:_="" ns4:_="">
     <xsd:import namespace="dd0bfe55-5c12-4789-98d0-82523c6ebf2f"/>
@@ -25146,25 +25173,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18214261-A5B8-46A6-8EA9-D141AF47C781}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B13BC9-D801-4C64-8AB5-CC109F2868F2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD50FC3-0748-4BBF-9E89-63758872895D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25182,4 +25206,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3B13BC9-D801-4C64-8AB5-CC109F2868F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18214261-A5B8-46A6-8EA9-D141AF47C781}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>